--- a/Gantt-diagram(projektplan).xlsx
+++ b/Gantt-diagram(projektplan).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khali\Documents\GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mathi\Documents\Hardware-identification-and-QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3684229-1020-41F6-9362-BB7984A654E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254B5C8E-D8B6-40CB-9DFE-7A8CD623C21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1335" yWindow="4065" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplanlægger" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <r>
       <rPr>
@@ -231,19 +231,16 @@
     <t>Gantt Project Planner - Weeks, Overview (Quality Assurance, Otovo group)</t>
   </si>
   <si>
-    <t>1. implementation of retrained OCR &amp; STR models</t>
-  </si>
-  <si>
     <t>Research influence of resolution on accuracy</t>
   </si>
   <si>
-    <t>Michael</t>
-  </si>
-  <si>
     <t>Mid-way report</t>
   </si>
   <si>
     <t>Give peer review to other projects</t>
+  </si>
+  <si>
+    <t>1. implementation of retrained OCR &amp; STR models using HPC</t>
   </si>
 </sst>
 </file>
@@ -413,7 +410,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -816,77 +812,77 @@
     <xf numFmtId="1" fontId="12" fillId="10" borderId="1" xfId="13" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="12" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="12" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1426,26 +1422,26 @@
   </sheetPr>
   <dimension ref="A1:EI66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A3" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.75" customWidth="1"/>
-    <col min="2" max="2" width="25" style="2" customWidth="1"/>
-    <col min="3" max="6" width="11.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.25" style="2" customWidth="1"/>
+    <col min="3" max="6" width="11.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="21" style="3" customWidth="1"/>
-    <col min="8" max="8" width="3.1640625" style="1" customWidth="1"/>
-    <col min="9" max="27" width="3.58203125" style="1" customWidth="1"/>
-    <col min="28" max="77" width="3.58203125" customWidth="1"/>
-    <col min="79" max="97" width="2.9140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.125" style="1" customWidth="1"/>
+    <col min="9" max="27" width="3.625" style="1" customWidth="1"/>
+    <col min="28" max="77" width="3.625" customWidth="1"/>
+    <col min="79" max="97" width="2.875" bestFit="1" customWidth="1"/>
     <col min="98" max="118" width="1.25" customWidth="1"/>
-    <col min="119" max="125" width="4.08203125" bestFit="1" customWidth="1"/>
+    <col min="119" max="125" width="4.125" bestFit="1" customWidth="1"/>
     <col min="126" max="146" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.25">
+    <row r="1" spans="1:139" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="7" t="s">
         <v>42</v>
       </c>
@@ -1455,196 +1451,196 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:139" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+    <row r="2" spans="1:139" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
       <c r="G2" s="43"/>
       <c r="H2" s="44"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="59" t="s">
+      <c r="K2" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="61"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="60"/>
       <c r="P2" s="9"/>
-      <c r="Q2" s="59" t="s">
+      <c r="Q2" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="61"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="60"/>
       <c r="U2" s="10"/>
-      <c r="V2" s="62" t="s">
+      <c r="V2" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="64"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="63"/>
       <c r="Z2" s="11"/>
-      <c r="AA2" s="65" t="s">
+      <c r="AA2" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="67"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="65"/>
+      <c r="AF2" s="65"/>
+      <c r="AG2" s="66"/>
       <c r="AH2" s="12"/>
-      <c r="AI2" s="62" t="s">
+      <c r="AI2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="63"/>
-    </row>
-    <row r="3" spans="1:139" s="5" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="48" t="s">
+      <c r="AJ2" s="62"/>
+      <c r="AK2" s="62"/>
+      <c r="AL2" s="62"/>
+      <c r="AM2" s="62"/>
+      <c r="AN2" s="62"/>
+      <c r="AO2" s="62"/>
+      <c r="AP2" s="62"/>
+    </row>
+    <row r="3" spans="1:139" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="50"/>
-      <c r="I3" s="45" t="s">
+      <c r="H3" s="49"/>
+      <c r="I3" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="47" t="s">
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="45" t="s">
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="47" t="s">
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="47"/>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="45" t="s">
+      <c r="AC3" s="68"/>
+      <c r="AD3" s="68"/>
+      <c r="AE3" s="68"/>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="68"/>
+      <c r="AH3" s="68"/>
+      <c r="AI3" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="45"/>
-      <c r="AO3" s="45"/>
-      <c r="AP3" s="47" t="s">
+      <c r="AJ3" s="67"/>
+      <c r="AK3" s="67"/>
+      <c r="AL3" s="67"/>
+      <c r="AM3" s="67"/>
+      <c r="AN3" s="67"/>
+      <c r="AO3" s="67"/>
+      <c r="AP3" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="AQ3" s="47"/>
-      <c r="AR3" s="47"/>
-      <c r="AS3" s="47"/>
-      <c r="AT3" s="47"/>
-      <c r="AU3" s="47"/>
-      <c r="AV3" s="47"/>
-      <c r="AW3" s="45" t="s">
+      <c r="AQ3" s="68"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="68"/>
+      <c r="AW3" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="AX3" s="45"/>
-      <c r="AY3" s="45"/>
-      <c r="AZ3" s="45"/>
-      <c r="BA3" s="45"/>
-      <c r="BB3" s="45"/>
-      <c r="BC3" s="45"/>
-      <c r="BD3" s="47" t="s">
+      <c r="AX3" s="67"/>
+      <c r="AY3" s="67"/>
+      <c r="AZ3" s="67"/>
+      <c r="BA3" s="67"/>
+      <c r="BB3" s="67"/>
+      <c r="BC3" s="67"/>
+      <c r="BD3" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="BE3" s="47"/>
-      <c r="BF3" s="47"/>
-      <c r="BG3" s="47"/>
-      <c r="BH3" s="47"/>
-      <c r="BI3" s="47"/>
-      <c r="BJ3" s="47"/>
-      <c r="BK3" s="45" t="s">
+      <c r="BE3" s="68"/>
+      <c r="BF3" s="68"/>
+      <c r="BG3" s="68"/>
+      <c r="BH3" s="68"/>
+      <c r="BI3" s="68"/>
+      <c r="BJ3" s="68"/>
+      <c r="BK3" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="BL3" s="45"/>
-      <c r="BM3" s="45"/>
-      <c r="BN3" s="45"/>
-      <c r="BO3" s="45"/>
-      <c r="BP3" s="45"/>
-      <c r="BQ3" s="45"/>
-      <c r="BR3" s="47" t="s">
+      <c r="BL3" s="67"/>
+      <c r="BM3" s="67"/>
+      <c r="BN3" s="67"/>
+      <c r="BO3" s="67"/>
+      <c r="BP3" s="67"/>
+      <c r="BQ3" s="67"/>
+      <c r="BR3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="BS3" s="47"/>
-      <c r="BT3" s="47"/>
-      <c r="BU3" s="47"/>
-      <c r="BV3" s="47"/>
-      <c r="BW3" s="47"/>
-      <c r="BX3" s="47"/>
-      <c r="BY3" s="45" t="s">
+      <c r="BS3" s="68"/>
+      <c r="BT3" s="68"/>
+      <c r="BU3" s="68"/>
+      <c r="BV3" s="68"/>
+      <c r="BW3" s="68"/>
+      <c r="BX3" s="68"/>
+      <c r="BY3" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="BZ3" s="45"/>
-      <c r="CA3" s="45"/>
-      <c r="CB3" s="45"/>
-      <c r="CC3" s="45"/>
-      <c r="CD3" s="45"/>
-      <c r="CE3" s="45"/>
-      <c r="CF3" s="47" t="s">
+      <c r="BZ3" s="67"/>
+      <c r="CA3" s="67"/>
+      <c r="CB3" s="67"/>
+      <c r="CC3" s="67"/>
+      <c r="CD3" s="67"/>
+      <c r="CE3" s="67"/>
+      <c r="CF3" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="CG3" s="47"/>
-      <c r="CH3" s="47"/>
-      <c r="CI3" s="47"/>
-      <c r="CJ3" s="47"/>
-      <c r="CK3" s="47"/>
-      <c r="CL3" s="47"/>
-      <c r="CM3" s="45" t="s">
+      <c r="CG3" s="68"/>
+      <c r="CH3" s="68"/>
+      <c r="CI3" s="68"/>
+      <c r="CJ3" s="68"/>
+      <c r="CK3" s="68"/>
+      <c r="CL3" s="68"/>
+      <c r="CM3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="CN3" s="45"/>
-      <c r="CO3" s="45"/>
-      <c r="CP3" s="45"/>
-      <c r="CQ3" s="45"/>
-      <c r="CR3" s="45"/>
-      <c r="CS3" s="45"/>
+      <c r="CN3" s="67"/>
+      <c r="CO3" s="67"/>
+      <c r="CP3" s="67"/>
+      <c r="CQ3" s="67"/>
+      <c r="CR3" s="67"/>
+      <c r="CS3" s="67"/>
       <c r="CT3" s="46"/>
       <c r="CU3" s="46"/>
       <c r="CV3" s="46"/>
@@ -1668,39 +1664,39 @@
       <c r="DL3" s="46"/>
       <c r="DM3" s="46"/>
       <c r="DN3" s="46"/>
-      <c r="DO3" s="45" t="s">
+      <c r="DO3" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="DP3" s="45"/>
-      <c r="DQ3" s="45"/>
-      <c r="DR3" s="45"/>
-      <c r="DS3" s="45"/>
-      <c r="DT3" s="45"/>
-      <c r="DU3" s="45"/>
-      <c r="DV3" s="45"/>
-      <c r="DW3" s="45"/>
-      <c r="DX3" s="45"/>
-      <c r="DY3" s="45"/>
-      <c r="DZ3" s="45"/>
-      <c r="EA3" s="45"/>
-      <c r="EB3" s="45"/>
-      <c r="EC3" s="45"/>
-      <c r="ED3" s="45"/>
-      <c r="EE3" s="45"/>
-      <c r="EF3" s="45"/>
-      <c r="EG3" s="45"/>
-      <c r="EH3" s="45"/>
-      <c r="EI3" s="45"/>
-    </row>
-    <row r="4" spans="1:139" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="49"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="51"/>
+      <c r="DP3" s="67"/>
+      <c r="DQ3" s="67"/>
+      <c r="DR3" s="67"/>
+      <c r="DS3" s="67"/>
+      <c r="DT3" s="67"/>
+      <c r="DU3" s="67"/>
+      <c r="DV3" s="67"/>
+      <c r="DW3" s="67"/>
+      <c r="DX3" s="67"/>
+      <c r="DY3" s="67"/>
+      <c r="DZ3" s="67"/>
+      <c r="EA3" s="67"/>
+      <c r="EB3" s="67"/>
+      <c r="EC3" s="67"/>
+      <c r="ED3" s="67"/>
+      <c r="EE3" s="67"/>
+      <c r="EF3" s="67"/>
+      <c r="EG3" s="67"/>
+      <c r="EH3" s="67"/>
+      <c r="EI3" s="67"/>
+    </row>
+    <row r="4" spans="1:139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="48"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="50"/>
       <c r="I4" s="14">
         <v>1</v>
       </c>
@@ -2095,7 +2091,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>41</v>
       </c>
@@ -2121,7 +2117,7 @@
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
     </row>
-    <row r="6" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>41</v>
       </c>
@@ -2148,7 +2144,7 @@
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
     </row>
-    <row r="7" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>41</v>
       </c>
@@ -2174,7 +2170,7 @@
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
     </row>
-    <row r="8" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>41</v>
       </c>
@@ -2200,7 +2196,7 @@
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
     </row>
-    <row r="9" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>41</v>
       </c>
@@ -2226,7 +2222,7 @@
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
     </row>
-    <row r="10" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>41</v>
       </c>
@@ -2252,7 +2248,7 @@
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
     </row>
-    <row r="11" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>41</v>
       </c>
@@ -2278,7 +2274,7 @@
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
     </row>
-    <row r="12" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>41</v>
       </c>
@@ -2304,36 +2300,38 @@
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
     </row>
-    <row r="13" spans="1:139" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:139" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="68" t="s">
-        <v>43</v>
+      <c r="B13" s="45" t="s">
+        <v>46</v>
       </c>
       <c r="C13" s="18">
         <v>22</v>
       </c>
       <c r="D13" s="18">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E13" s="32">
         <v>31</v>
       </c>
-      <c r="F13" s="19"/>
+      <c r="F13" s="19">
+        <v>25</v>
+      </c>
       <c r="G13" s="20">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H13" s="21"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
     </row>
-    <row r="14" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="18">
         <v>34</v>
@@ -2352,49 +2350,59 @@
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
     </row>
-    <row r="15" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C15" s="18">
         <v>38</v>
       </c>
       <c r="D15" s="18">
-        <v>6</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
+        <v>12</v>
+      </c>
+      <c r="E15" s="19">
+        <v>41</v>
+      </c>
+      <c r="F15" s="19">
+        <v>9</v>
+      </c>
       <c r="G15" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="21"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
     </row>
-    <row r="16" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>41</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C16" s="18">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D16" s="69">
         <v>5</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="4"/>
+      <c r="E16" s="19">
+        <v>52</v>
+      </c>
+      <c r="F16" s="19">
+        <v>3</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
       <c r="H16" s="17"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
     </row>
-    <row r="17" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>41</v>
       </c>
@@ -2402,7 +2410,7 @@
         <v>34</v>
       </c>
       <c r="C17" s="18">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D17" s="18">
         <v>15</v>
@@ -2416,7 +2424,7 @@
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
     </row>
-    <row r="18" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>41</v>
       </c>
@@ -2438,7 +2446,7 @@
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
     </row>
-    <row r="19" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>41</v>
       </c>
@@ -2446,7 +2454,7 @@
         <v>33</v>
       </c>
       <c r="C19" s="18">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D19" s="18">
         <v>15</v>
@@ -2460,7 +2468,7 @@
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
     </row>
-    <row r="20" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>41</v>
       </c>
@@ -2468,12 +2476,14 @@
         <v>37</v>
       </c>
       <c r="C20" s="18">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D20" s="18">
         <v>100</v>
       </c>
-      <c r="E20" s="19"/>
+      <c r="E20" s="19">
+        <v>38</v>
+      </c>
       <c r="F20" s="19"/>
       <c r="G20" s="4">
         <v>0</v>
@@ -2482,7 +2492,7 @@
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
     </row>
-    <row r="21" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
         <v>41</v>
       </c>
@@ -2504,7 +2514,7 @@
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
     </row>
-    <row r="22" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>41</v>
       </c>
@@ -2655,7 +2665,7 @@
       <c r="EH22" s="42"/>
       <c r="EI22" s="42"/>
     </row>
-    <row r="23" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
@@ -2683,7 +2693,7 @@
       <c r="Z23"/>
       <c r="AA23"/>
     </row>
-    <row r="24" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
@@ -2711,7 +2721,7 @@
       <c r="Z24"/>
       <c r="AA24"/>
     </row>
-    <row r="25" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -2739,7 +2749,7 @@
       <c r="Z25"/>
       <c r="AA25"/>
     </row>
-    <row r="26" spans="1:139" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:139" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -2767,7 +2777,7 @@
       <c r="Z26"/>
       <c r="AA26"/>
     </row>
-    <row r="27" spans="1:139" ht="36.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:139" ht="36.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -2795,7 +2805,7 @@
       <c r="Z27"/>
       <c r="AA27"/>
     </row>
-    <row r="28" spans="1:139" ht="36.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:139" ht="36.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -2823,7 +2833,7 @@
       <c r="Z28"/>
       <c r="AA28"/>
     </row>
-    <row r="29" spans="1:139" ht="36.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:139" ht="36.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -2851,7 +2861,7 @@
       <c r="Z29"/>
       <c r="AA29"/>
     </row>
-    <row r="30" spans="1:139" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:139" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -2879,7 +2889,7 @@
       <c r="Z30"/>
       <c r="AA30"/>
     </row>
-    <row r="31" spans="1:139" ht="36.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:139" ht="36.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -2907,7 +2917,7 @@
       <c r="Z31"/>
       <c r="AA31"/>
     </row>
-    <row r="32" spans="1:139" ht="36.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:139" ht="36.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -2935,20 +2945,20 @@
       <c r="Z32"/>
       <c r="AA32"/>
     </row>
-    <row r="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49"/>
       <c r="C49"/>
       <c r="D49"/>
@@ -2976,7 +2986,7 @@
       <c r="Z49"/>
       <c r="AA49"/>
     </row>
-    <row r="50" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50"/>
       <c r="C50"/>
       <c r="D50"/>
@@ -3004,7 +3014,7 @@
       <c r="Z50"/>
       <c r="AA50"/>
     </row>
-    <row r="51" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51"/>
       <c r="C51"/>
       <c r="D51"/>
@@ -3032,7 +3042,7 @@
       <c r="Z51"/>
       <c r="AA51"/>
     </row>
-    <row r="52" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52"/>
       <c r="C52"/>
       <c r="D52"/>
@@ -3060,7 +3070,7 @@
       <c r="Z52"/>
       <c r="AA52"/>
     </row>
-    <row r="53" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53"/>
       <c r="C53"/>
       <c r="D53"/>
@@ -3088,7 +3098,7 @@
       <c r="Z53"/>
       <c r="AA53"/>
     </row>
-    <row r="54" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54"/>
       <c r="C54"/>
       <c r="D54"/>
@@ -3116,7 +3126,7 @@
       <c r="Z54"/>
       <c r="AA54"/>
     </row>
-    <row r="55" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55"/>
@@ -3144,7 +3154,7 @@
       <c r="Z55"/>
       <c r="AA55"/>
     </row>
-    <row r="56" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56"/>
@@ -3172,7 +3182,7 @@
       <c r="Z56"/>
       <c r="AA56"/>
     </row>
-    <row r="57" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
@@ -3200,7 +3210,7 @@
       <c r="Z57"/>
       <c r="AA57"/>
     </row>
-    <row r="58" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58"/>
       <c r="C58"/>
       <c r="D58"/>
@@ -3228,7 +3238,7 @@
       <c r="Z58"/>
       <c r="AA58"/>
     </row>
-    <row r="59" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59"/>
@@ -3256,7 +3266,7 @@
       <c r="Z59"/>
       <c r="AA59"/>
     </row>
-    <row r="60" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60"/>
       <c r="C60"/>
       <c r="D60"/>
@@ -3284,7 +3294,7 @@
       <c r="Z60"/>
       <c r="AA60"/>
     </row>
-    <row r="61" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61"/>
       <c r="C61"/>
       <c r="D61"/>
@@ -3312,7 +3322,7 @@
       <c r="Z61"/>
       <c r="AA61"/>
     </row>
-    <row r="62" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J62"/>
       <c r="K62"/>
       <c r="L62"/>
@@ -3332,7 +3342,7 @@
       <c r="Z62"/>
       <c r="AA62"/>
     </row>
-    <row r="63" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J63"/>
       <c r="K63"/>
       <c r="L63"/>
@@ -3352,7 +3362,7 @@
       <c r="Z63"/>
       <c r="AA63"/>
     </row>
-    <row r="64" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J64"/>
       <c r="K64"/>
       <c r="L64"/>
@@ -3372,7 +3382,7 @@
       <c r="Z64"/>
       <c r="AA64"/>
     </row>
-    <row r="65" spans="10:27" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="10:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J65"/>
       <c r="K65"/>
       <c r="L65"/>
@@ -3392,7 +3402,7 @@
       <c r="Z65"/>
       <c r="AA65"/>
     </row>
-    <row r="66" spans="10:27" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="10:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J66"/>
       <c r="K66"/>
       <c r="L66"/>
@@ -3414,21 +3424,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="CT3:CZ3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="AA2:AG2"/>
-    <mergeCell ref="AI2:AP2"/>
     <mergeCell ref="DO3:EI3"/>
     <mergeCell ref="DA3:DG3"/>
     <mergeCell ref="DH3:DN3"/>
@@ -3445,6 +3440,21 @@
     <mergeCell ref="BY3:CE3"/>
     <mergeCell ref="CF3:CL3"/>
     <mergeCell ref="CM3:CS3"/>
+    <mergeCell ref="CT3:CZ3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="AA2:AG2"/>
+    <mergeCell ref="AI2:AP2"/>
   </mergeCells>
   <conditionalFormatting sqref="I5:M22">
     <cfRule type="expression" dxfId="17" priority="10">
@@ -3530,7 +3540,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.43307086614173229" right="0.43307086614173229" top="0.51181102362204722" bottom="0.51181102362204722" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="25" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="24" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
     <firstHeader xml:space="preserve">&amp;LSom note så tælles dagene ud fra projektstart- altså første dag vi blev tildelt grupper og projektet gik i gang.

--- a/Gantt-diagram(projektplan).xlsx
+++ b/Gantt-diagram(projektplan).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mathi\Documents\Hardware-identification-and-QA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254B5C8E-D8B6-40CB-9DFE-7A8CD623C21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD081971-6192-4B91-9B4D-26D38211BD12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="4065" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-150" yWindow="0" windowWidth="17870" windowHeight="10990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplanlægger" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,18 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Projektplanlægger!$3:$4</definedName>
     <definedName name="valgt_tidsrum">Projektplanlægger!$H$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -37,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
   <si>
     <r>
       <rPr>
@@ -198,33 +208,15 @@
     <t xml:space="preserve">Assess articles sent by supervisor </t>
   </si>
   <si>
-    <t>Revise prototype using feedback from Otovo</t>
-  </si>
-  <si>
     <t>Final prototype</t>
   </si>
   <si>
     <t>Analyze strengths and weaknesses of prototype</t>
   </si>
   <si>
-    <t>In-depth Research OCR and STR models</t>
-  </si>
-  <si>
-    <t>1. Uge af treugers                                                                                                                                                   (30/5-6/6)</t>
-  </si>
-  <si>
-    <t>Projektskrivning (samt retning)</t>
-  </si>
-  <si>
-    <t>Video Pitch(?)</t>
-  </si>
-  <si>
     <t>Eksamens-periode</t>
   </si>
   <si>
-    <t>Buffer (for unseen problems)</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
@@ -240,14 +232,68 @@
     <t>Give peer review to other projects</t>
   </si>
   <si>
-    <t>1. implementation of retrained OCR &amp; STR models using HPC</t>
+    <t>In-depth Research OCR(STR) and STR(scene text recognition) models</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>1. implementation of retrained recognition model using HPC (including learning HPC)</t>
+  </si>
+  <si>
+    <t>Khalil</t>
+  </si>
+  <si>
+    <t>Data Analysis(1. data dump)</t>
+  </si>
+  <si>
+    <t>Label bounding boxes (1. data dump)</t>
+  </si>
+  <si>
+    <t>Re-train CRAFT (on 1. data dump)</t>
+  </si>
+  <si>
+    <t>Label bounding boxes (2. data dump)</t>
+  </si>
+  <si>
+    <t>Re-train CRAFT (on 2. data dump)</t>
+  </si>
+  <si>
+    <t>Data Analysis (2. data dump)</t>
+  </si>
+  <si>
+    <t>Mathias</t>
+  </si>
+  <si>
+    <t>1. Uge af treugers                                                                                                                                                   (2/6-23/6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Learning Weights &amp; Biases</t>
+  </si>
+  <si>
+    <t>Present final prototype and recieve feedback from Otovo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. implementation of retrained recognition model using HPC </t>
+  </si>
+  <si>
+    <t>Compare different recognition models</t>
+  </si>
+  <si>
+    <t>Research definition of confidence score in EasyOCR's framework</t>
+  </si>
+  <si>
+    <t>Project writing</t>
+  </si>
+  <si>
+    <t>Video Pitch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -392,14 +438,6 @@
       <color theme="1" tint="0.24994659260841701"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -676,7 +714,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -722,9 +760,6 @@
     <xf numFmtId="3" fontId="14" fillId="8" borderId="2" xfId="3" applyFont="1" applyFill="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="5" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -746,12 +781,6 @@
     <xf numFmtId="9" fontId="15" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="16" fillId="9" borderId="2" xfId="3" applyFont="1" applyFill="1">
       <alignment horizontal="center"/>
     </xf>
@@ -770,33 +799,21 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="20" fillId="12" borderId="2" xfId="3" applyFont="1" applyFill="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="16" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="14" fillId="13" borderId="2" xfId="3" applyFont="1" applyFill="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="18" fillId="10" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -812,12 +829,18 @@
     <xf numFmtId="1" fontId="12" fillId="10" borderId="1" xfId="13" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -878,14 +901,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="10" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -909,7 +953,7 @@
     <cellStyle name="Titel" xfId="8" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Værdi for tidsrum" xfId="13" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -928,119 +972,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1420,30 +1351,30 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:EI66"/>
+  <dimension ref="A1:EL75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A20" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="14.75" customWidth="1"/>
     <col min="2" max="2" width="37.25" style="2" customWidth="1"/>
-    <col min="3" max="6" width="11.625" style="1" customWidth="1"/>
+    <col min="3" max="6" width="11.58203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="21" style="3" customWidth="1"/>
-    <col min="8" max="8" width="3.125" style="1" customWidth="1"/>
-    <col min="9" max="27" width="3.625" style="1" customWidth="1"/>
-    <col min="28" max="77" width="3.625" customWidth="1"/>
-    <col min="79" max="97" width="2.875" bestFit="1" customWidth="1"/>
-    <col min="98" max="118" width="1.25" customWidth="1"/>
-    <col min="119" max="125" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="126" max="146" width="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.08203125" style="1" customWidth="1"/>
+    <col min="9" max="27" width="3.58203125" style="1" customWidth="1"/>
+    <col min="28" max="77" width="3.58203125" customWidth="1"/>
+    <col min="79" max="97" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="98" max="121" width="1.25" customWidth="1"/>
+    <col min="122" max="128" width="4.08203125" bestFit="1" customWidth="1"/>
+    <col min="129" max="149" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:142" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.25">
       <c r="B1" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1451,252 +1382,255 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:139" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="44"/>
+    <row r="2" spans="1:142" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="37"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="58" t="s">
+      <c r="K2" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="60"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="55"/>
       <c r="P2" s="9"/>
-      <c r="Q2" s="58" t="s">
+      <c r="Q2" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="60"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="55"/>
       <c r="U2" s="10"/>
-      <c r="V2" s="61" t="s">
+      <c r="V2" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="63"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="58"/>
       <c r="Z2" s="11"/>
-      <c r="AA2" s="64" t="s">
+      <c r="AA2" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="66"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="61"/>
       <c r="AH2" s="12"/>
-      <c r="AI2" s="61" t="s">
+      <c r="AI2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="AJ2" s="62"/>
-      <c r="AK2" s="62"/>
-      <c r="AL2" s="62"/>
-      <c r="AM2" s="62"/>
-      <c r="AN2" s="62"/>
-      <c r="AO2" s="62"/>
-      <c r="AP2" s="62"/>
-    </row>
-    <row r="3" spans="1:139" s="5" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="57"/>
+    </row>
+    <row r="3" spans="1:142" s="5" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="G3" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="49"/>
-      <c r="I3" s="67" t="s">
+      <c r="H3" s="44"/>
+      <c r="I3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="68" t="s">
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="67" t="s">
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="68" t="s">
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="68"/>
-      <c r="AH3" s="68"/>
-      <c r="AI3" s="67" t="s">
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="AJ3" s="67"/>
-      <c r="AK3" s="67"/>
-      <c r="AL3" s="67"/>
-      <c r="AM3" s="67"/>
-      <c r="AN3" s="67"/>
-      <c r="AO3" s="67"/>
-      <c r="AP3" s="68" t="s">
+      <c r="AJ3" s="39"/>
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="39"/>
+      <c r="AO3" s="39"/>
+      <c r="AP3" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="AQ3" s="68"/>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="68"/>
-      <c r="AW3" s="67" t="s">
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="41"/>
+      <c r="AS3" s="41"/>
+      <c r="AT3" s="41"/>
+      <c r="AU3" s="41"/>
+      <c r="AV3" s="41"/>
+      <c r="AW3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="AX3" s="67"/>
-      <c r="AY3" s="67"/>
-      <c r="AZ3" s="67"/>
-      <c r="BA3" s="67"/>
-      <c r="BB3" s="67"/>
-      <c r="BC3" s="67"/>
-      <c r="BD3" s="68" t="s">
+      <c r="AX3" s="39"/>
+      <c r="AY3" s="39"/>
+      <c r="AZ3" s="39"/>
+      <c r="BA3" s="39"/>
+      <c r="BB3" s="39"/>
+      <c r="BC3" s="39"/>
+      <c r="BD3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="BE3" s="68"/>
-      <c r="BF3" s="68"/>
-      <c r="BG3" s="68"/>
-      <c r="BH3" s="68"/>
-      <c r="BI3" s="68"/>
-      <c r="BJ3" s="68"/>
-      <c r="BK3" s="67" t="s">
+      <c r="BE3" s="41"/>
+      <c r="BF3" s="41"/>
+      <c r="BG3" s="41"/>
+      <c r="BH3" s="41"/>
+      <c r="BI3" s="41"/>
+      <c r="BJ3" s="41"/>
+      <c r="BK3" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="BL3" s="67"/>
-      <c r="BM3" s="67"/>
-      <c r="BN3" s="67"/>
-      <c r="BO3" s="67"/>
-      <c r="BP3" s="67"/>
-      <c r="BQ3" s="67"/>
-      <c r="BR3" s="68" t="s">
+      <c r="BL3" s="39"/>
+      <c r="BM3" s="39"/>
+      <c r="BN3" s="39"/>
+      <c r="BO3" s="39"/>
+      <c r="BP3" s="39"/>
+      <c r="BQ3" s="39"/>
+      <c r="BR3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="BS3" s="68"/>
-      <c r="BT3" s="68"/>
-      <c r="BU3" s="68"/>
-      <c r="BV3" s="68"/>
-      <c r="BW3" s="68"/>
-      <c r="BX3" s="68"/>
-      <c r="BY3" s="67" t="s">
+      <c r="BS3" s="41"/>
+      <c r="BT3" s="41"/>
+      <c r="BU3" s="41"/>
+      <c r="BV3" s="41"/>
+      <c r="BW3" s="41"/>
+      <c r="BX3" s="41"/>
+      <c r="BY3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="BZ3" s="67"/>
-      <c r="CA3" s="67"/>
-      <c r="CB3" s="67"/>
-      <c r="CC3" s="67"/>
-      <c r="CD3" s="67"/>
-      <c r="CE3" s="67"/>
-      <c r="CF3" s="68" t="s">
+      <c r="BZ3" s="39"/>
+      <c r="CA3" s="39"/>
+      <c r="CB3" s="39"/>
+      <c r="CC3" s="39"/>
+      <c r="CD3" s="39"/>
+      <c r="CE3" s="39"/>
+      <c r="CF3" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="CG3" s="68"/>
-      <c r="CH3" s="68"/>
-      <c r="CI3" s="68"/>
-      <c r="CJ3" s="68"/>
-      <c r="CK3" s="68"/>
-      <c r="CL3" s="68"/>
-      <c r="CM3" s="67" t="s">
+      <c r="CG3" s="41"/>
+      <c r="CH3" s="41"/>
+      <c r="CI3" s="41"/>
+      <c r="CJ3" s="41"/>
+      <c r="CK3" s="41"/>
+      <c r="CL3" s="41"/>
+      <c r="CM3" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="CN3" s="67"/>
-      <c r="CO3" s="67"/>
-      <c r="CP3" s="67"/>
-      <c r="CQ3" s="67"/>
-      <c r="CR3" s="67"/>
-      <c r="CS3" s="67"/>
-      <c r="CT3" s="46"/>
-      <c r="CU3" s="46"/>
-      <c r="CV3" s="46"/>
-      <c r="CW3" s="46"/>
-      <c r="CX3" s="46"/>
-      <c r="CY3" s="46"/>
-      <c r="CZ3" s="46"/>
-      <c r="DA3" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="DB3" s="46"/>
-      <c r="DC3" s="46"/>
-      <c r="DD3" s="46"/>
-      <c r="DE3" s="46"/>
-      <c r="DF3" s="46"/>
-      <c r="DG3" s="46"/>
-      <c r="DH3" s="46"/>
-      <c r="DI3" s="46"/>
-      <c r="DJ3" s="46"/>
-      <c r="DK3" s="46"/>
-      <c r="DL3" s="46"/>
-      <c r="DM3" s="46"/>
-      <c r="DN3" s="46"/>
-      <c r="DO3" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="DP3" s="67"/>
-      <c r="DQ3" s="67"/>
-      <c r="DR3" s="67"/>
-      <c r="DS3" s="67"/>
-      <c r="DT3" s="67"/>
-      <c r="DU3" s="67"/>
-      <c r="DV3" s="67"/>
-      <c r="DW3" s="67"/>
-      <c r="DX3" s="67"/>
-      <c r="DY3" s="67"/>
-      <c r="DZ3" s="67"/>
-      <c r="EA3" s="67"/>
-      <c r="EB3" s="67"/>
-      <c r="EC3" s="67"/>
-      <c r="ED3" s="67"/>
-      <c r="EE3" s="67"/>
-      <c r="EF3" s="67"/>
-      <c r="EG3" s="67"/>
-      <c r="EH3" s="67"/>
-      <c r="EI3" s="67"/>
-    </row>
-    <row r="4" spans="1:139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="50"/>
+      <c r="CN3" s="39"/>
+      <c r="CO3" s="39"/>
+      <c r="CP3" s="39"/>
+      <c r="CQ3" s="39"/>
+      <c r="CR3" s="39"/>
+      <c r="CS3" s="39"/>
+      <c r="CT3" s="40"/>
+      <c r="CU3" s="40"/>
+      <c r="CV3" s="40"/>
+      <c r="CW3" s="40"/>
+      <c r="CX3" s="40"/>
+      <c r="CY3" s="40"/>
+      <c r="CZ3" s="40"/>
+      <c r="DA3" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="DB3" s="40"/>
+      <c r="DC3" s="40"/>
+      <c r="DD3" s="40"/>
+      <c r="DE3" s="40"/>
+      <c r="DF3" s="40"/>
+      <c r="DG3" s="40"/>
+      <c r="DH3" s="40"/>
+      <c r="DI3" s="40"/>
+      <c r="DJ3" s="40"/>
+      <c r="DK3" s="40"/>
+      <c r="DL3" s="40"/>
+      <c r="DM3" s="40"/>
+      <c r="DN3" s="40"/>
+      <c r="DO3" s="40"/>
+      <c r="DP3" s="40"/>
+      <c r="DQ3" s="40"/>
+      <c r="DR3" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="DS3" s="39"/>
+      <c r="DT3" s="39"/>
+      <c r="DU3" s="39"/>
+      <c r="DV3" s="39"/>
+      <c r="DW3" s="39"/>
+      <c r="DX3" s="39"/>
+      <c r="DY3" s="39"/>
+      <c r="DZ3" s="39"/>
+      <c r="EA3" s="39"/>
+      <c r="EB3" s="39"/>
+      <c r="EC3" s="39"/>
+      <c r="ED3" s="39"/>
+      <c r="EE3" s="39"/>
+      <c r="EF3" s="39"/>
+      <c r="EG3" s="39"/>
+      <c r="EH3" s="39"/>
+      <c r="EI3" s="39"/>
+      <c r="EJ3" s="39"/>
+      <c r="EK3" s="39"/>
+      <c r="EL3" s="39"/>
+    </row>
+    <row r="4" spans="1:142" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="43"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="45"/>
       <c r="I4" s="14">
         <v>1</v>
       </c>
@@ -1712,25 +1646,25 @@
       <c r="M4" s="14">
         <v>5</v>
       </c>
-      <c r="N4" s="26">
+      <c r="N4" s="23">
         <v>6</v>
       </c>
-      <c r="O4" s="25">
+      <c r="O4" s="22">
         <v>7</v>
       </c>
-      <c r="P4" s="25">
+      <c r="P4" s="22">
         <v>8</v>
       </c>
-      <c r="Q4" s="25">
+      <c r="Q4" s="22">
         <v>9</v>
       </c>
-      <c r="R4" s="25">
+      <c r="R4" s="22">
         <v>10</v>
       </c>
-      <c r="S4" s="25">
+      <c r="S4" s="22">
         <v>11</v>
       </c>
-      <c r="T4" s="25">
+      <c r="T4" s="22">
         <v>12</v>
       </c>
       <c r="U4" s="14">
@@ -1754,25 +1688,25 @@
       <c r="AA4" s="14">
         <v>19</v>
       </c>
-      <c r="AB4" s="25">
+      <c r="AB4" s="22">
         <v>20</v>
       </c>
-      <c r="AC4" s="25">
+      <c r="AC4" s="22">
         <v>21</v>
       </c>
-      <c r="AD4" s="25">
+      <c r="AD4" s="22">
         <v>22</v>
       </c>
-      <c r="AE4" s="25">
+      <c r="AE4" s="22">
         <v>23</v>
       </c>
-      <c r="AF4" s="25">
+      <c r="AF4" s="22">
         <v>24</v>
       </c>
-      <c r="AG4" s="25">
+      <c r="AG4" s="22">
         <v>25</v>
       </c>
-      <c r="AH4" s="25">
+      <c r="AH4" s="22">
         <v>26</v>
       </c>
       <c r="AI4" s="14">
@@ -1796,25 +1730,25 @@
       <c r="AO4" s="14">
         <v>33</v>
       </c>
-      <c r="AP4" s="25">
+      <c r="AP4" s="22">
         <v>34</v>
       </c>
-      <c r="AQ4" s="25">
+      <c r="AQ4" s="22">
         <v>35</v>
       </c>
-      <c r="AR4" s="25">
+      <c r="AR4" s="22">
         <v>36</v>
       </c>
-      <c r="AS4" s="25">
+      <c r="AS4" s="22">
         <v>37</v>
       </c>
-      <c r="AT4" s="25">
+      <c r="AT4" s="22">
         <v>38</v>
       </c>
-      <c r="AU4" s="25">
+      <c r="AU4" s="22">
         <v>39</v>
       </c>
-      <c r="AV4" s="25">
+      <c r="AV4" s="22">
         <v>40</v>
       </c>
       <c r="AW4" s="14">
@@ -1838,25 +1772,25 @@
       <c r="BC4" s="14">
         <v>47</v>
       </c>
-      <c r="BD4" s="25">
+      <c r="BD4" s="22">
         <v>48</v>
       </c>
-      <c r="BE4" s="25">
+      <c r="BE4" s="22">
         <v>49</v>
       </c>
-      <c r="BF4" s="25">
+      <c r="BF4" s="22">
         <v>50</v>
       </c>
-      <c r="BG4" s="25">
+      <c r="BG4" s="22">
         <v>51</v>
       </c>
-      <c r="BH4" s="25">
+      <c r="BH4" s="22">
         <v>52</v>
       </c>
-      <c r="BI4" s="25">
+      <c r="BI4" s="22">
         <v>53</v>
       </c>
-      <c r="BJ4" s="25">
+      <c r="BJ4" s="22">
         <v>54</v>
       </c>
       <c r="BK4" s="14">
@@ -1880,25 +1814,25 @@
       <c r="BQ4" s="14">
         <v>61</v>
       </c>
-      <c r="BR4" s="25">
+      <c r="BR4" s="22">
         <v>62</v>
       </c>
-      <c r="BS4" s="25">
+      <c r="BS4" s="22">
         <v>63</v>
       </c>
-      <c r="BT4" s="25">
+      <c r="BT4" s="22">
         <v>64</v>
       </c>
-      <c r="BU4" s="25">
+      <c r="BU4" s="22">
         <v>65</v>
       </c>
-      <c r="BV4" s="25">
+      <c r="BV4" s="22">
         <v>66</v>
       </c>
-      <c r="BW4" s="25">
+      <c r="BW4" s="22">
         <v>67</v>
       </c>
-      <c r="BX4" s="25">
+      <c r="BX4" s="22">
         <v>68</v>
       </c>
       <c r="BY4" s="14">
@@ -1922,25 +1856,25 @@
       <c r="CE4" s="14">
         <v>75</v>
       </c>
-      <c r="CF4" s="25">
+      <c r="CF4" s="22">
         <v>76</v>
       </c>
-      <c r="CG4" s="25">
+      <c r="CG4" s="22">
         <v>77</v>
       </c>
-      <c r="CH4" s="25">
+      <c r="CH4" s="22">
         <v>78</v>
       </c>
-      <c r="CI4" s="25">
+      <c r="CI4" s="22">
         <v>79</v>
       </c>
-      <c r="CJ4" s="25">
+      <c r="CJ4" s="22">
         <v>80</v>
       </c>
-      <c r="CK4" s="25">
+      <c r="CK4" s="22">
         <v>81</v>
       </c>
-      <c r="CL4" s="25">
+      <c r="CL4" s="22">
         <v>82</v>
       </c>
       <c r="CM4" s="14">
@@ -1964,67 +1898,67 @@
       <c r="CS4" s="14">
         <v>89</v>
       </c>
-      <c r="CT4" s="33">
+      <c r="CT4" s="14">
         <v>90</v>
       </c>
-      <c r="CU4" s="33">
+      <c r="CU4" s="14">
         <v>91</v>
       </c>
-      <c r="CV4" s="33">
+      <c r="CV4" s="14">
         <v>92</v>
       </c>
-      <c r="CW4" s="33">
+      <c r="CW4" s="14">
         <v>93</v>
       </c>
-      <c r="CX4" s="33">
+      <c r="CX4" s="14">
         <v>94</v>
       </c>
-      <c r="CY4" s="33">
+      <c r="CY4" s="14">
         <v>95</v>
       </c>
-      <c r="CZ4" s="33">
+      <c r="CZ4" s="14">
         <v>96</v>
       </c>
-      <c r="DA4" s="33">
+      <c r="DA4" s="14">
         <v>97</v>
       </c>
-      <c r="DB4" s="33">
+      <c r="DB4" s="14">
         <v>98</v>
       </c>
-      <c r="DC4" s="33">
+      <c r="DC4" s="14">
         <v>99</v>
       </c>
-      <c r="DD4" s="33">
+      <c r="DD4" s="14">
         <v>100</v>
       </c>
-      <c r="DE4" s="33">
+      <c r="DE4" s="14">
         <v>101</v>
       </c>
-      <c r="DF4" s="33">
+      <c r="DF4" s="14">
         <v>102</v>
       </c>
-      <c r="DG4" s="33">
+      <c r="DG4" s="14">
         <v>103</v>
       </c>
-      <c r="DH4" s="33">
+      <c r="DH4" s="14">
         <v>104</v>
       </c>
-      <c r="DI4" s="33">
+      <c r="DI4" s="14">
         <v>105</v>
       </c>
-      <c r="DJ4" s="33">
+      <c r="DJ4" s="14">
         <v>106</v>
       </c>
-      <c r="DK4" s="33">
+      <c r="DK4" s="14">
         <v>107</v>
       </c>
-      <c r="DL4" s="33">
+      <c r="DL4" s="14">
         <v>108</v>
       </c>
-      <c r="DM4" s="33">
+      <c r="DM4" s="14">
         <v>109</v>
       </c>
-      <c r="DN4" s="33">
+      <c r="DN4" s="14">
         <v>110</v>
       </c>
       <c r="DO4" s="14">
@@ -2048,290 +1982,299 @@
       <c r="DU4" s="14">
         <v>117</v>
       </c>
-      <c r="DV4" s="34">
+      <c r="DV4" s="14">
         <v>118</v>
       </c>
-      <c r="DW4" s="34">
+      <c r="DW4" s="14">
         <v>119</v>
       </c>
-      <c r="DX4" s="34">
+      <c r="DX4" s="14">
         <v>120</v>
       </c>
-      <c r="DY4" s="34">
+      <c r="DY4" s="29">
         <v>121</v>
       </c>
-      <c r="DZ4" s="34">
+      <c r="DZ4" s="29">
         <v>122</v>
       </c>
-      <c r="EA4" s="34">
+      <c r="EA4" s="29">
         <v>123</v>
       </c>
-      <c r="EB4" s="34">
+      <c r="EB4" s="29">
         <v>124</v>
       </c>
-      <c r="EC4" s="35">
+      <c r="EC4" s="29">
         <v>125</v>
       </c>
-      <c r="ED4" s="35">
+      <c r="ED4" s="29">
         <v>126</v>
       </c>
-      <c r="EE4" s="35">
+      <c r="EE4" s="29">
         <v>127</v>
       </c>
-      <c r="EF4" s="35">
+      <c r="EF4" s="30">
         <v>128</v>
       </c>
-      <c r="EG4" s="35">
+      <c r="EG4" s="30">
         <v>129</v>
       </c>
-      <c r="EH4" s="35">
+      <c r="EH4" s="30">
         <v>130</v>
       </c>
-      <c r="EI4" s="35">
+      <c r="EI4" s="30">
         <v>131</v>
       </c>
-    </row>
-    <row r="5" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="23" t="s">
+      <c r="EJ4" s="30">
+        <v>132</v>
+      </c>
+      <c r="EK4" s="30">
+        <v>133</v>
+      </c>
+      <c r="EL4" s="30">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:142" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <v>1</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <v>1</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="18">
         <v>1</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="18">
         <v>1</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="19">
         <v>1</v>
       </c>
-      <c r="H5" s="21"/>
+      <c r="H5" s="20"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
     </row>
-    <row r="6" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="24" t="s">
+    <row r="6" spans="1:142" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <v>1</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="17">
         <v>7</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="18">
         <v>1</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="18">
         <v>3</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <v>1</v>
       </c>
-      <c r="H6" s="17"/>
+      <c r="H6" s="16"/>
       <c r="O6" s="13"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
     </row>
-    <row r="7" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="23" t="s">
+    <row r="7" spans="1:142" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <v>8</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <v>5</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="18">
         <v>13</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <v>2</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="21">
         <v>1</v>
       </c>
-      <c r="H7" s="21"/>
+      <c r="H7" s="20"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
     </row>
-    <row r="8" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="24" t="s">
+    <row r="8" spans="1:142" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <v>8</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="17">
         <v>8</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="18">
         <v>8</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <v>8</v>
       </c>
       <c r="G8" s="4">
         <v>1</v>
       </c>
-      <c r="H8" s="17"/>
+      <c r="H8" s="16"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
     </row>
-    <row r="9" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="23" t="s">
+    <row r="9" spans="1:142" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <v>8</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="17">
         <v>8</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="18">
         <v>15</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <v>1</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="19">
         <v>1</v>
       </c>
-      <c r="H9" s="21"/>
+      <c r="H9" s="20"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
     </row>
-    <row r="10" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="24" t="s">
+    <row r="10" spans="1:142" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="17">
         <v>8</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="17">
         <v>8</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="18">
         <v>8</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="18">
         <v>8</v>
       </c>
       <c r="G10" s="4">
         <v>1</v>
       </c>
-      <c r="H10" s="17"/>
+      <c r="H10" s="16"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
     </row>
-    <row r="11" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="23" t="s">
+    <row r="11" spans="1:142" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="17">
         <v>8</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="17">
         <v>8</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="18">
         <v>14</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="18">
         <v>2</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="19">
         <v>1</v>
       </c>
-      <c r="H11" s="21"/>
+      <c r="H11" s="20"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
     </row>
-    <row r="12" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="15" t="s">
+    <row r="12" spans="1:142" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="18">
+      <c r="B12" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="17">
         <v>15</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="17">
         <v>15</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="18">
         <v>15</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="18">
         <v>15</v>
       </c>
       <c r="G12" s="4">
         <v>1</v>
       </c>
-      <c r="H12" s="17"/>
+      <c r="H12" s="16"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
     </row>
-    <row r="13" spans="1:139" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="18">
+    <row r="13" spans="1:142" ht="36.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="17">
         <v>22</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="17">
         <v>30</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="28">
         <v>31</v>
       </c>
-      <c r="F13" s="19">
-        <v>25</v>
-      </c>
-      <c r="G13" s="20">
-        <v>0.9</v>
-      </c>
-      <c r="H13" s="21"/>
+      <c r="F13" s="18">
+        <v>50</v>
+      </c>
+      <c r="G13" s="19">
+        <v>1</v>
+      </c>
+      <c r="H13" s="20"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
     </row>
-    <row r="14" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+    <row r="14" spans="1:142" ht="36.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>43</v>
+      <c r="B14" s="63" t="s">
+        <v>44</v>
       </c>
       <c r="C14" s="18">
         <v>34</v>
@@ -2339,586 +2282,536 @@
       <c r="D14" s="18">
         <v>5</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="18">
         <v>34</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="4">
-        <v>0</v>
-      </c>
-      <c r="H14" s="17"/>
+      <c r="F14" s="18">
+        <v>5</v>
+      </c>
+      <c r="G14" s="15">
+        <v>1</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="62"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
     </row>
-    <row r="15" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+    <row r="15" spans="1:142" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="18">
-        <v>38</v>
-      </c>
-      <c r="D15" s="18">
-        <v>12</v>
-      </c>
-      <c r="E15" s="19">
-        <v>41</v>
-      </c>
-      <c r="F15" s="19">
-        <v>9</v>
-      </c>
-      <c r="G15" s="20">
+      <c r="B15" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="17">
+        <v>34</v>
+      </c>
+      <c r="D15" s="17">
+        <v>5</v>
+      </c>
+      <c r="E15" s="18">
+        <v>34</v>
+      </c>
+      <c r="F15" s="18">
+        <v>5</v>
+      </c>
+      <c r="G15" s="4">
         <v>1</v>
       </c>
-      <c r="H15" s="21"/>
+      <c r="H15" s="16"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
     </row>
-    <row r="16" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+    <row r="16" spans="1:142" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="17">
+        <v>38</v>
+      </c>
+      <c r="D16" s="17">
+        <v>12</v>
+      </c>
+      <c r="E16" s="18">
         <v>41</v>
       </c>
-      <c r="B16" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="18">
-        <v>50</v>
-      </c>
-      <c r="D16" s="69">
-        <v>5</v>
-      </c>
-      <c r="E16" s="19">
-        <v>52</v>
-      </c>
-      <c r="F16" s="19">
-        <v>3</v>
-      </c>
-      <c r="G16" s="4">
+      <c r="F16" s="18">
+        <v>9</v>
+      </c>
+      <c r="G16" s="19">
         <v>1</v>
       </c>
-      <c r="H16" s="17"/>
+      <c r="H16" s="20"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
     </row>
-    <row r="17" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="18">
+    <row r="17" spans="1:142" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="17">
         <v>50</v>
       </c>
-      <c r="D17" s="18">
-        <v>15</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20">
-        <v>0</v>
-      </c>
-      <c r="H17" s="21"/>
+      <c r="D17" s="38">
+        <v>5</v>
+      </c>
+      <c r="E17" s="18">
+        <v>52</v>
+      </c>
+      <c r="F17" s="18">
+        <v>3</v>
+      </c>
+      <c r="G17" s="15">
+        <v>1</v>
+      </c>
+      <c r="H17" s="16"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
     </row>
-    <row r="18" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="18">
-        <v>51</v>
-      </c>
-      <c r="D18" s="18">
-        <v>15</v>
-      </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="4">
-        <v>0</v>
-      </c>
-      <c r="H18" s="17"/>
+    <row r="18" spans="1:142" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="17">
+        <v>69</v>
+      </c>
+      <c r="D18" s="38">
+        <v>4</v>
+      </c>
+      <c r="E18" s="18">
+        <v>69</v>
+      </c>
+      <c r="F18" s="18">
+        <v>4</v>
+      </c>
+      <c r="G18" s="19">
+        <v>1</v>
+      </c>
+      <c r="H18" s="20"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
     </row>
-    <row r="19" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="18">
-        <v>60</v>
-      </c>
-      <c r="D19" s="18">
-        <v>15</v>
-      </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20">
-        <v>0</v>
-      </c>
-      <c r="H19" s="21"/>
+    <row r="19" spans="1:142" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="17">
+        <v>73</v>
+      </c>
+      <c r="D19" s="38">
+        <v>40</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
     </row>
-    <row r="20" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="18">
-        <v>38</v>
-      </c>
-      <c r="D20" s="18">
-        <v>100</v>
-      </c>
-      <c r="E20" s="19">
-        <v>38</v>
-      </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="4">
-        <v>0</v>
-      </c>
-      <c r="H20" s="17"/>
+    <row r="20" spans="1:142" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="17">
+        <v>77</v>
+      </c>
+      <c r="D20" s="38">
+        <v>25</v>
+      </c>
+      <c r="E20" s="18">
+        <v>85</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
     </row>
-    <row r="21" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
+    <row r="21" spans="1:142" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="18">
-        <v>120</v>
-      </c>
-      <c r="D21" s="18">
-        <v>10</v>
-      </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20">
-        <v>0</v>
-      </c>
-      <c r="H21" s="21"/>
+      <c r="B21" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="17">
+        <v>85</v>
+      </c>
+      <c r="D21" s="38">
+        <v>1</v>
+      </c>
+      <c r="E21" s="18">
+        <v>85</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
     </row>
-    <row r="22" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
+    <row r="22" spans="1:142" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="17">
+        <f>20+77</f>
+        <v>97</v>
+      </c>
+      <c r="D22" s="38">
+        <v>1</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="20"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+    </row>
+    <row r="23" spans="1:142" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="18">
+        <v>97</v>
+      </c>
+      <c r="D23" s="18">
+        <v>1</v>
+      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="16"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+    </row>
+    <row r="24" spans="1:142" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="37">
-        <v>71</v>
-      </c>
-      <c r="D22" s="37">
-        <v>19</v>
-      </c>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39">
+      <c r="B24" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="17">
+        <v>85</v>
+      </c>
+      <c r="D24" s="38">
+        <v>25</v>
+      </c>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="20"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+    </row>
+    <row r="25" spans="1:142" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="17">
+        <f>73+40</f>
+        <v>113</v>
+      </c>
+      <c r="D25" s="38">
+        <v>1</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="16"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+    </row>
+    <row r="26" spans="1:142" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="17">
+        <v>113</v>
+      </c>
+      <c r="D26" s="17">
+        <v>3</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="19">
         <v>0</v>
       </c>
-      <c r="H22" s="40"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="41"/>
-      <c r="AA22" s="41"/>
-      <c r="AB22" s="41"/>
-      <c r="AC22" s="41"/>
-      <c r="AD22" s="42"/>
-      <c r="AE22" s="42"/>
-      <c r="AF22" s="42"/>
-      <c r="AG22" s="42"/>
-      <c r="AH22" s="42"/>
-      <c r="AI22" s="42"/>
-      <c r="AJ22" s="42"/>
-      <c r="AK22" s="42"/>
-      <c r="AL22" s="42"/>
-      <c r="AM22" s="42"/>
-      <c r="AN22" s="42"/>
-      <c r="AO22" s="42"/>
-      <c r="AP22" s="42"/>
-      <c r="AQ22" s="42"/>
-      <c r="AR22" s="42"/>
-      <c r="AS22" s="42"/>
-      <c r="AT22" s="42"/>
-      <c r="AU22" s="42"/>
-      <c r="AV22" s="42"/>
-      <c r="AW22" s="42"/>
-      <c r="AX22" s="42"/>
-      <c r="AY22" s="42"/>
-      <c r="AZ22" s="42"/>
-      <c r="BA22" s="42"/>
-      <c r="BB22" s="42"/>
-      <c r="BC22" s="42"/>
-      <c r="BD22" s="42"/>
-      <c r="BE22" s="42"/>
-      <c r="BF22" s="42"/>
-      <c r="BG22" s="42"/>
-      <c r="BH22" s="42"/>
-      <c r="BI22" s="42"/>
-      <c r="BJ22" s="42"/>
-      <c r="BK22" s="42"/>
-      <c r="BL22" s="42"/>
-      <c r="BM22" s="42"/>
-      <c r="BN22" s="42"/>
-      <c r="BO22" s="42"/>
-      <c r="BP22" s="42"/>
-      <c r="BQ22" s="42"/>
-      <c r="BR22" s="42"/>
-      <c r="BS22" s="42"/>
-      <c r="BT22" s="42"/>
-      <c r="BU22" s="42"/>
-      <c r="BV22" s="42"/>
-      <c r="BW22" s="42"/>
-      <c r="BX22" s="42"/>
-      <c r="BY22" s="42"/>
-      <c r="BZ22" s="42"/>
-      <c r="CA22" s="42"/>
-      <c r="CB22" s="42"/>
-      <c r="CC22" s="42"/>
-      <c r="CD22" s="42"/>
-      <c r="CE22" s="42"/>
-      <c r="CF22" s="42"/>
-      <c r="CG22" s="42"/>
-      <c r="CH22" s="42"/>
-      <c r="CI22" s="42"/>
-      <c r="CJ22" s="42"/>
-      <c r="CK22" s="42"/>
-      <c r="CL22" s="42"/>
-      <c r="CM22" s="42"/>
-      <c r="CN22" s="42"/>
-      <c r="CO22" s="42"/>
-      <c r="CP22" s="42"/>
-      <c r="CQ22" s="42"/>
-      <c r="CR22" s="42"/>
-      <c r="CS22" s="42"/>
-      <c r="CT22" s="42"/>
-      <c r="CU22" s="42"/>
-      <c r="CV22" s="42"/>
-      <c r="CW22" s="42"/>
-      <c r="CX22" s="42"/>
-      <c r="CY22" s="42"/>
-      <c r="CZ22" s="42"/>
-      <c r="DA22" s="42"/>
-      <c r="DB22" s="42"/>
-      <c r="DC22" s="42"/>
-      <c r="DD22" s="42"/>
-      <c r="DE22" s="42"/>
-      <c r="DF22" s="42"/>
-      <c r="DG22" s="42"/>
-      <c r="DH22" s="42"/>
-      <c r="DI22" s="42"/>
-      <c r="DJ22" s="42"/>
-      <c r="DK22" s="42"/>
-      <c r="DL22" s="42"/>
-      <c r="DM22" s="42"/>
-      <c r="DN22" s="42"/>
-      <c r="DO22" s="42"/>
-      <c r="DP22" s="42"/>
-      <c r="DQ22" s="42"/>
-      <c r="DR22" s="42"/>
-      <c r="DS22" s="42"/>
-      <c r="DT22" s="42"/>
-      <c r="DU22" s="42"/>
-      <c r="DV22" s="42"/>
-      <c r="DW22" s="42"/>
-      <c r="DX22" s="42"/>
-      <c r="DY22" s="42"/>
-      <c r="DZ22" s="42"/>
-      <c r="EA22" s="42"/>
-      <c r="EB22" s="42"/>
-      <c r="EC22" s="42"/>
-      <c r="ED22" s="42"/>
-      <c r="EE22" s="42"/>
-      <c r="EF22" s="42"/>
-      <c r="EG22" s="42"/>
-      <c r="EH22" s="42"/>
-      <c r="EI22" s="42"/>
-    </row>
-    <row r="23" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
-      <c r="R23"/>
-      <c r="S23"/>
-      <c r="T23"/>
-      <c r="U23"/>
-      <c r="V23"/>
-      <c r="W23"/>
-      <c r="X23"/>
-      <c r="Y23"/>
-      <c r="Z23"/>
-      <c r="AA23"/>
-    </row>
-    <row r="24" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
-      <c r="T24"/>
-      <c r="U24"/>
-      <c r="V24"/>
-      <c r="W24"/>
-      <c r="X24"/>
-      <c r="Y24"/>
-      <c r="Z24"/>
-      <c r="AA24"/>
-    </row>
-    <row r="25" spans="1:139" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-      <c r="R25"/>
-      <c r="S25"/>
-      <c r="T25"/>
-      <c r="U25"/>
-      <c r="V25"/>
-      <c r="W25"/>
-      <c r="X25"/>
-      <c r="Y25"/>
-      <c r="Z25"/>
-      <c r="AA25"/>
-    </row>
-    <row r="26" spans="1:139" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
-      <c r="R26"/>
-      <c r="S26"/>
-      <c r="T26"/>
-      <c r="U26"/>
-      <c r="V26"/>
-      <c r="W26"/>
-      <c r="X26"/>
-      <c r="Y26"/>
-      <c r="Z26"/>
-      <c r="AA26"/>
-    </row>
-    <row r="27" spans="1:139" ht="36.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
-      <c r="R27"/>
-      <c r="S27"/>
-      <c r="T27"/>
-      <c r="U27"/>
-      <c r="V27"/>
-      <c r="W27"/>
-      <c r="X27"/>
-      <c r="Y27"/>
-      <c r="Z27"/>
-      <c r="AA27"/>
-    </row>
-    <row r="28" spans="1:139" ht="36.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
-      <c r="N28"/>
-      <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
-      <c r="R28"/>
-      <c r="S28"/>
-      <c r="T28"/>
-      <c r="U28"/>
-      <c r="V28"/>
-      <c r="W28"/>
-      <c r="X28"/>
-      <c r="Y28"/>
-      <c r="Z28"/>
-      <c r="AA28"/>
-    </row>
-    <row r="29" spans="1:139" ht="36.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29"/>
-      <c r="O29"/>
-      <c r="P29"/>
-      <c r="Q29"/>
-      <c r="R29"/>
-      <c r="S29"/>
-      <c r="T29"/>
-      <c r="U29"/>
-      <c r="V29"/>
-      <c r="W29"/>
-      <c r="X29"/>
-      <c r="Y29"/>
-      <c r="Z29"/>
-      <c r="AA29"/>
-    </row>
-    <row r="30" spans="1:139" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
-      <c r="R30"/>
-      <c r="S30"/>
-      <c r="T30"/>
-      <c r="U30"/>
-      <c r="V30"/>
-      <c r="W30"/>
-      <c r="X30"/>
-      <c r="Y30"/>
-      <c r="Z30"/>
-      <c r="AA30"/>
-    </row>
-    <row r="31" spans="1:139" ht="36.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
-      <c r="R31"/>
-      <c r="S31"/>
-      <c r="T31"/>
-      <c r="U31"/>
-      <c r="V31"/>
-      <c r="W31"/>
-      <c r="X31"/>
-      <c r="Y31"/>
-      <c r="Z31"/>
-      <c r="AA31"/>
-    </row>
-    <row r="32" spans="1:139" ht="36.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32"/>
+      <c r="H26" s="20"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+    </row>
+    <row r="27" spans="1:142" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="17">
+        <v>113</v>
+      </c>
+      <c r="D27" s="17">
+        <v>3</v>
+      </c>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="16"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+    </row>
+    <row r="28" spans="1:142" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="17">
+        <v>113</v>
+      </c>
+      <c r="D28" s="17">
+        <v>5</v>
+      </c>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="19">
+        <v>0</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+    </row>
+    <row r="29" spans="1:142" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="17">
+        <v>113</v>
+      </c>
+      <c r="D29" s="17">
+        <v>5</v>
+      </c>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="15">
+        <v>0</v>
+      </c>
+      <c r="H29" s="16"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+    </row>
+    <row r="30" spans="1:142" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="17">
+        <v>38</v>
+      </c>
+      <c r="D30" s="17">
+        <v>100</v>
+      </c>
+      <c r="E30" s="18">
+        <v>38</v>
+      </c>
+      <c r="F30" s="18"/>
+      <c r="G30" s="19">
+        <v>0</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+    </row>
+    <row r="31" spans="1:142" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="31">
+        <v>120</v>
+      </c>
+      <c r="D31" s="31">
+        <v>10</v>
+      </c>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="69">
+        <v>0</v>
+      </c>
+      <c r="H31" s="33"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="34"/>
+      <c r="X31" s="34"/>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="34"/>
+      <c r="AA31" s="34"/>
+      <c r="AB31" s="34"/>
+      <c r="AC31" s="34"/>
+      <c r="AD31" s="35"/>
+      <c r="AE31" s="35"/>
+      <c r="AF31" s="35"/>
+      <c r="AG31" s="35"/>
+      <c r="AH31" s="35"/>
+      <c r="AI31" s="35"/>
+      <c r="AJ31" s="35"/>
+      <c r="AK31" s="35"/>
+      <c r="AL31" s="35"/>
+      <c r="AM31" s="35"/>
+      <c r="AN31" s="35"/>
+      <c r="AO31" s="35"/>
+      <c r="AP31" s="35"/>
+      <c r="AQ31" s="35"/>
+      <c r="AR31" s="35"/>
+      <c r="AS31" s="35"/>
+      <c r="AT31" s="35"/>
+      <c r="AU31" s="35"/>
+      <c r="AV31" s="35"/>
+      <c r="AW31" s="35"/>
+      <c r="AX31" s="35"/>
+      <c r="AY31" s="35"/>
+      <c r="AZ31" s="35"/>
+      <c r="BA31" s="35"/>
+      <c r="BB31" s="35"/>
+      <c r="BC31" s="35"/>
+      <c r="BD31" s="35"/>
+      <c r="BE31" s="35"/>
+      <c r="BF31" s="35"/>
+      <c r="BG31" s="35"/>
+      <c r="BH31" s="35"/>
+      <c r="BI31" s="35"/>
+      <c r="BJ31" s="35"/>
+      <c r="BK31" s="35"/>
+      <c r="BL31" s="35"/>
+      <c r="BM31" s="35"/>
+      <c r="BN31" s="35"/>
+      <c r="BO31" s="35"/>
+      <c r="BP31" s="35"/>
+      <c r="BQ31" s="35"/>
+      <c r="BR31" s="35"/>
+      <c r="BS31" s="35"/>
+      <c r="BT31" s="35"/>
+      <c r="BU31" s="35"/>
+      <c r="BV31" s="35"/>
+      <c r="BW31" s="35"/>
+      <c r="BX31" s="35"/>
+      <c r="BY31" s="35"/>
+      <c r="BZ31" s="35"/>
+      <c r="CA31" s="35"/>
+      <c r="CB31" s="35"/>
+      <c r="CC31" s="35"/>
+      <c r="CD31" s="35"/>
+      <c r="CE31" s="35"/>
+      <c r="CF31" s="35"/>
+      <c r="CG31" s="35"/>
+      <c r="CH31" s="35"/>
+      <c r="CI31" s="35"/>
+      <c r="CJ31" s="35"/>
+      <c r="CK31" s="35"/>
+      <c r="CL31" s="35"/>
+      <c r="CM31" s="35"/>
+      <c r="CN31" s="35"/>
+      <c r="CO31" s="35"/>
+      <c r="CP31" s="35"/>
+      <c r="CQ31" s="35"/>
+      <c r="CR31" s="35"/>
+      <c r="CS31" s="35"/>
+      <c r="CT31" s="35"/>
+      <c r="CU31" s="35"/>
+      <c r="CV31" s="35"/>
+      <c r="CW31" s="35"/>
+      <c r="CX31" s="35"/>
+      <c r="CY31" s="35"/>
+      <c r="CZ31" s="35"/>
+      <c r="DA31" s="35"/>
+      <c r="DB31" s="35"/>
+      <c r="DC31" s="35"/>
+      <c r="DD31" s="35"/>
+      <c r="DE31" s="35"/>
+      <c r="DF31" s="35"/>
+      <c r="DG31" s="35"/>
+      <c r="DH31" s="35"/>
+      <c r="DI31" s="35"/>
+      <c r="DJ31" s="35"/>
+      <c r="DK31" s="35"/>
+      <c r="DL31" s="35"/>
+      <c r="DM31" s="35"/>
+      <c r="DN31" s="35"/>
+      <c r="DO31" s="35"/>
+      <c r="DP31" s="35"/>
+      <c r="DQ31" s="35"/>
+      <c r="DR31" s="35"/>
+      <c r="DS31" s="35"/>
+      <c r="DT31" s="35"/>
+      <c r="DU31" s="35"/>
+      <c r="DV31" s="35"/>
+      <c r="DW31" s="35"/>
+      <c r="DX31" s="35"/>
+      <c r="DY31" s="35"/>
+      <c r="DZ31" s="35"/>
+      <c r="EA31" s="35"/>
+      <c r="EB31" s="35"/>
+      <c r="EC31" s="35"/>
+      <c r="ED31" s="35"/>
+      <c r="EE31" s="35"/>
+      <c r="EF31" s="35"/>
+      <c r="EG31" s="35"/>
+      <c r="EH31" s="35"/>
+      <c r="EI31" s="35"/>
+      <c r="EJ31" s="35"/>
+      <c r="EK31" s="35"/>
+      <c r="EL31" s="35"/>
+    </row>
+    <row r="32" spans="1:142" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="67"/>
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
@@ -2945,21 +2838,381 @@
       <c r="Z32"/>
       <c r="AA32"/>
     </row>
-    <row r="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49"/>
+    <row r="33" spans="2:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="67"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33"/>
+      <c r="Z33"/>
+      <c r="AA33"/>
+    </row>
+    <row r="34" spans="2:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="67"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+      <c r="AA34"/>
+    </row>
+    <row r="35" spans="2:27" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="67"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35"/>
+      <c r="AA35"/>
+    </row>
+    <row r="36" spans="2:27" ht="36.65" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="67"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36"/>
+      <c r="AA36"/>
+    </row>
+    <row r="37" spans="2:27" ht="36.65" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="67"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+    </row>
+    <row r="38" spans="2:27" ht="36.65" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="67"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38"/>
+      <c r="Y38"/>
+      <c r="Z38"/>
+      <c r="AA38"/>
+    </row>
+    <row r="39" spans="2:27" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="67"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39"/>
+      <c r="Y39"/>
+      <c r="Z39"/>
+      <c r="AA39"/>
+    </row>
+    <row r="40" spans="2:27" ht="36.65" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="67"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="Z40"/>
+      <c r="AA40"/>
+    </row>
+    <row r="41" spans="2:27" ht="36.65" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="67"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+      <c r="Y41"/>
+      <c r="Z41"/>
+      <c r="AA41"/>
+    </row>
+    <row r="42" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="67"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+      <c r="X42"/>
+      <c r="Y42"/>
+      <c r="Z42"/>
+      <c r="AA42"/>
+    </row>
+    <row r="43" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="68"/>
+    </row>
+    <row r="44" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="68"/>
+    </row>
+    <row r="45" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="68"/>
+    </row>
+    <row r="46" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="67"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+      <c r="X46"/>
+      <c r="Y46"/>
+      <c r="Z46"/>
+      <c r="AA46"/>
+    </row>
+    <row r="47" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="67"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+      <c r="X47"/>
+      <c r="Y47"/>
+      <c r="Z47"/>
+      <c r="AA47"/>
+    </row>
+    <row r="48" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="67"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48"/>
+      <c r="Y48"/>
+      <c r="Z48"/>
+      <c r="AA48"/>
+    </row>
+    <row r="49" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="67"/>
       <c r="C49"/>
       <c r="D49"/>
       <c r="E49"/>
@@ -2986,8 +3239,8 @@
       <c r="Z49"/>
       <c r="AA49"/>
     </row>
-    <row r="50" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50"/>
+    <row r="50" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="67"/>
       <c r="C50"/>
       <c r="D50"/>
       <c r="E50"/>
@@ -3014,8 +3267,8 @@
       <c r="Z50"/>
       <c r="AA50"/>
     </row>
-    <row r="51" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51"/>
+    <row r="51" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="67"/>
       <c r="C51"/>
       <c r="D51"/>
       <c r="E51"/>
@@ -3042,8 +3295,8 @@
       <c r="Z51"/>
       <c r="AA51"/>
     </row>
-    <row r="52" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52"/>
+    <row r="52" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="67"/>
       <c r="C52"/>
       <c r="D52"/>
       <c r="E52"/>
@@ -3070,8 +3323,8 @@
       <c r="Z52"/>
       <c r="AA52"/>
     </row>
-    <row r="53" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53"/>
+    <row r="53" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="67"/>
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53"/>
@@ -3098,8 +3351,8 @@
       <c r="Z53"/>
       <c r="AA53"/>
     </row>
-    <row r="54" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54"/>
+    <row r="54" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="67"/>
       <c r="C54"/>
       <c r="D54"/>
       <c r="E54"/>
@@ -3126,8 +3379,8 @@
       <c r="Z54"/>
       <c r="AA54"/>
     </row>
-    <row r="55" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55"/>
+    <row r="55" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="67"/>
       <c r="C55"/>
       <c r="D55"/>
       <c r="E55"/>
@@ -3154,7 +3407,7 @@
       <c r="Z55"/>
       <c r="AA55"/>
     </row>
-    <row r="56" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56"/>
@@ -3182,7 +3435,7 @@
       <c r="Z56"/>
       <c r="AA56"/>
     </row>
-    <row r="57" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
@@ -3210,7 +3463,7 @@
       <c r="Z57"/>
       <c r="AA57"/>
     </row>
-    <row r="58" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58"/>
       <c r="C58"/>
       <c r="D58"/>
@@ -3238,7 +3491,7 @@
       <c r="Z58"/>
       <c r="AA58"/>
     </row>
-    <row r="59" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59"/>
@@ -3266,7 +3519,7 @@
       <c r="Z59"/>
       <c r="AA59"/>
     </row>
-    <row r="60" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60"/>
       <c r="C60"/>
       <c r="D60"/>
@@ -3294,7 +3547,7 @@
       <c r="Z60"/>
       <c r="AA60"/>
     </row>
-    <row r="61" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61"/>
       <c r="C61"/>
       <c r="D61"/>
@@ -3322,7 +3575,15 @@
       <c r="Z61"/>
       <c r="AA61"/>
     </row>
-    <row r="62" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
       <c r="J62"/>
       <c r="K62"/>
       <c r="L62"/>
@@ -3342,7 +3603,15 @@
       <c r="Z62"/>
       <c r="AA62"/>
     </row>
-    <row r="63" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
       <c r="J63"/>
       <c r="K63"/>
       <c r="L63"/>
@@ -3362,7 +3631,15 @@
       <c r="Z63"/>
       <c r="AA63"/>
     </row>
-    <row r="64" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
       <c r="J64"/>
       <c r="K64"/>
       <c r="L64"/>
@@ -3382,7 +3659,15 @@
       <c r="Z64"/>
       <c r="AA64"/>
     </row>
-    <row r="65" spans="10:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
       <c r="J65"/>
       <c r="K65"/>
       <c r="L65"/>
@@ -3402,7 +3687,15 @@
       <c r="Z65"/>
       <c r="AA65"/>
     </row>
-    <row r="66" spans="10:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
       <c r="J66"/>
       <c r="K66"/>
       <c r="L66"/>
@@ -3422,24 +3715,220 @@
       <c r="Z66"/>
       <c r="AA66"/>
     </row>
+    <row r="67" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67"/>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67"/>
+      <c r="V67"/>
+      <c r="W67"/>
+      <c r="X67"/>
+      <c r="Y67"/>
+      <c r="Z67"/>
+      <c r="AA67"/>
+    </row>
+    <row r="68" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
+      <c r="R68"/>
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68"/>
+      <c r="V68"/>
+      <c r="W68"/>
+      <c r="X68"/>
+      <c r="Y68"/>
+      <c r="Z68"/>
+      <c r="AA68"/>
+    </row>
+    <row r="69" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69"/>
+      <c r="W69"/>
+      <c r="X69"/>
+      <c r="Y69"/>
+      <c r="Z69"/>
+      <c r="AA69"/>
+    </row>
+    <row r="70" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70"/>
+      <c r="Q70"/>
+      <c r="R70"/>
+      <c r="S70"/>
+      <c r="T70"/>
+      <c r="U70"/>
+      <c r="V70"/>
+      <c r="W70"/>
+      <c r="X70"/>
+      <c r="Y70"/>
+      <c r="Z70"/>
+      <c r="AA70"/>
+    </row>
+    <row r="71" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71"/>
+      <c r="T71"/>
+      <c r="U71"/>
+      <c r="V71"/>
+      <c r="W71"/>
+      <c r="X71"/>
+      <c r="Y71"/>
+      <c r="Z71"/>
+      <c r="AA71"/>
+    </row>
+    <row r="72" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72"/>
+      <c r="V72"/>
+      <c r="W72"/>
+      <c r="X72"/>
+      <c r="Y72"/>
+      <c r="Z72"/>
+      <c r="AA72"/>
+    </row>
+    <row r="73" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
+      <c r="R73"/>
+      <c r="S73"/>
+      <c r="T73"/>
+      <c r="U73"/>
+      <c r="V73"/>
+      <c r="W73"/>
+      <c r="X73"/>
+      <c r="Y73"/>
+      <c r="Z73"/>
+      <c r="AA73"/>
+    </row>
+    <row r="74" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74"/>
+      <c r="T74"/>
+      <c r="U74"/>
+      <c r="V74"/>
+      <c r="W74"/>
+      <c r="X74"/>
+      <c r="Y74"/>
+      <c r="Z74"/>
+      <c r="AA74"/>
+    </row>
+    <row r="75" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
+      <c r="R75"/>
+      <c r="S75"/>
+      <c r="T75"/>
+      <c r="U75"/>
+      <c r="V75"/>
+      <c r="W75"/>
+      <c r="X75"/>
+      <c r="Y75"/>
+      <c r="Z75"/>
+      <c r="AA75"/>
+    </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="DO3:EI3"/>
-    <mergeCell ref="DA3:DG3"/>
-    <mergeCell ref="DH3:DN3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="N3:T3"/>
-    <mergeCell ref="U3:AA3"/>
-    <mergeCell ref="AB3:AH3"/>
-    <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="AP3:AV3"/>
-    <mergeCell ref="AW3:BC3"/>
-    <mergeCell ref="BD3:BJ3"/>
-    <mergeCell ref="BK3:BQ3"/>
-    <mergeCell ref="BR3:BX3"/>
-    <mergeCell ref="BY3:CE3"/>
-    <mergeCell ref="CF3:CL3"/>
-    <mergeCell ref="CM3:CS3"/>
     <mergeCell ref="CT3:CZ3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="H3:H4"/>
@@ -3455,70 +3944,60 @@
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AA2:AG2"/>
     <mergeCell ref="AI2:AP2"/>
+    <mergeCell ref="DR3:EL3"/>
+    <mergeCell ref="DA3:DG3"/>
+    <mergeCell ref="DH3:DQ3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="N3:T3"/>
+    <mergeCell ref="U3:AA3"/>
+    <mergeCell ref="AB3:AH3"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="AP3:AV3"/>
+    <mergeCell ref="AW3:BC3"/>
+    <mergeCell ref="BD3:BJ3"/>
+    <mergeCell ref="BK3:BQ3"/>
+    <mergeCell ref="BR3:BX3"/>
+    <mergeCell ref="BY3:CE3"/>
+    <mergeCell ref="CF3:CL3"/>
+    <mergeCell ref="CM3:CS3"/>
   </mergeCells>
-  <conditionalFormatting sqref="I5:M22">
-    <cfRule type="expression" dxfId="17" priority="10">
+  <conditionalFormatting sqref="I5:EL31">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>ProcentdelFuldført</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="11">
+    <cfRule type="expression" dxfId="8" priority="11">
       <formula>ProcentdelFuldførtUdOver</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="12">
+    <cfRule type="expression" dxfId="7" priority="12">
       <formula>Faktisk</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="13">
+    <cfRule type="expression" dxfId="6" priority="13">
       <formula>FaktiskUdOver</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="5" priority="14">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="15">
+    <cfRule type="expression" dxfId="4" priority="15">
       <formula>#REF!=valgt_tidsrum</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="16">
+    <cfRule type="expression" dxfId="3" priority="16">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="17">
+    <cfRule type="expression" dxfId="2" priority="17">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:M4">
-    <cfRule type="expression" dxfId="9" priority="18">
+    <cfRule type="expression" dxfId="1" priority="18">
       <formula>#REF!=valgt_tidsrum</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:EI22">
-    <cfRule type="expression" dxfId="8" priority="1">
-      <formula>ProcentdelFuldført</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2">
-      <formula>ProcentdelFuldførtUdOver</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3">
-      <formula>Faktisk</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="4">
-      <formula>FaktiskUdOver</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
-      <formula>#REF!=valgt_tidsrum</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="7">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="8">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N4:EI4">
+  <conditionalFormatting sqref="N4:EL4">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>#REF!=valgt_tidsrum</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations xWindow="177" yWindow="438" count="16">
+  <dataValidations disablePrompts="1" xWindow="177" yWindow="438" count="16">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Projektplanlæggeren bruger tidsrum som intervaller. Start=1 er tidsrum 1 og varighed=5 betyder, at projektet indeholder 5 tidsrum fra starttidsrummet. Indtast data startende fra B5 for at opdatere diagrammet" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Indtast en værdi fra 1 til 60, eller vælg et tidsrum på listen – tryk på  ANNULLER, ALT+PIL NED og derefter på ENTER for at vælge en værdi" prompt="Angiv et tidsrum inden for værdimængden af 1 til 60, eller vælg et tidsrum på listen. Tryk på ALT+PIL NED for at navigere på listen, og tryk derefter på ENTER for at vælge en værdi" sqref="H2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
@@ -3540,7 +4019,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.43307086614173229" right="0.43307086614173229" top="0.51181102362204722" bottom="0.51181102362204722" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="24" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="25" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
     <firstHeader xml:space="preserve">&amp;LSom note så tælles dagene ud fra projektstart- altså første dag vi blev tildelt grupper og projektet gik i gang.

--- a/Gantt-diagram(projektplan).xlsx
+++ b/Gantt-diagram(projektplan).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD081971-6192-4B91-9B4D-26D38211BD12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1674611D-A045-4651-826F-23DF6114D658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-150" yWindow="0" windowWidth="17870" windowHeight="10990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplanlægger" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
   <si>
     <r>
       <rPr>
@@ -265,28 +265,31 @@
     <t>Mathias</t>
   </si>
   <si>
-    <t>1. Uge af treugers                                                                                                                                                   (2/6-23/6)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Learning Weights &amp; Biases</t>
   </si>
   <si>
-    <t>Present final prototype and recieve feedback from Otovo</t>
-  </si>
-  <si>
     <t xml:space="preserve">2. implementation of retrained recognition model using HPC </t>
   </si>
   <si>
-    <t>Compare different recognition models</t>
-  </si>
-  <si>
-    <t>Research definition of confidence score in EasyOCR's framework</t>
-  </si>
-  <si>
     <t>Project writing</t>
   </si>
   <si>
     <t>Video Pitch</t>
+  </si>
+  <si>
+    <t>Bayesian Optimization on Recognition models</t>
+  </si>
+  <si>
+    <t>Re-train CRAFT on all data</t>
+  </si>
+  <si>
+    <t>Barcode scanning</t>
+  </si>
+  <si>
+    <t>Compare different solutions (STD + OCR)</t>
+  </si>
+  <si>
+    <t>1. Uge af treugers                                                                                                                                                                                       (2/6-23/6)</t>
   </si>
 </sst>
 </file>
@@ -531,7 +534,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -637,17 +640,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -714,7 +706,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -808,19 +800,10 @@
     <xf numFmtId="3" fontId="14" fillId="13" borderId="2" xfId="3" applyFont="1" applyFill="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="10" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="7" applyFill="1">
@@ -832,104 +815,98 @@
     <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="12" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="12" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="10" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1351,10 +1328,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:EL75"/>
+  <dimension ref="A1:EL76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A20" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScale="40" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1383,254 +1360,254 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:142" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="37"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="34"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="53" t="s">
+      <c r="K2" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="55"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
       <c r="P2" s="9"/>
-      <c r="Q2" s="53" t="s">
+      <c r="Q2" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="55"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="57"/>
       <c r="U2" s="10"/>
-      <c r="V2" s="56" t="s">
+      <c r="V2" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="58"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="60"/>
       <c r="Z2" s="11"/>
-      <c r="AA2" s="59" t="s">
+      <c r="AA2" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="61"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="62"/>
+      <c r="AF2" s="62"/>
+      <c r="AG2" s="63"/>
       <c r="AH2" s="12"/>
-      <c r="AI2" s="56" t="s">
+      <c r="AI2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="57"/>
-      <c r="AP2" s="57"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="59"/>
+      <c r="AN2" s="59"/>
+      <c r="AO2" s="59"/>
+      <c r="AP2" s="59"/>
     </row>
     <row r="3" spans="1:142" s="5" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="44"/>
-      <c r="I3" s="39" t="s">
+      <c r="H3" s="46"/>
+      <c r="I3" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="41" t="s">
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="39" t="s">
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="41" t="s">
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="39" t="s">
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="AJ3" s="39"/>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="39"/>
-      <c r="AN3" s="39"/>
-      <c r="AO3" s="39"/>
-      <c r="AP3" s="41" t="s">
+      <c r="AJ3" s="64"/>
+      <c r="AK3" s="64"/>
+      <c r="AL3" s="64"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="64"/>
+      <c r="AO3" s="64"/>
+      <c r="AP3" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="AQ3" s="41"/>
-      <c r="AR3" s="41"/>
-      <c r="AS3" s="41"/>
-      <c r="AT3" s="41"/>
-      <c r="AU3" s="41"/>
-      <c r="AV3" s="41"/>
-      <c r="AW3" s="39" t="s">
+      <c r="AQ3" s="65"/>
+      <c r="AR3" s="65"/>
+      <c r="AS3" s="65"/>
+      <c r="AT3" s="65"/>
+      <c r="AU3" s="65"/>
+      <c r="AV3" s="65"/>
+      <c r="AW3" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="AX3" s="39"/>
-      <c r="AY3" s="39"/>
-      <c r="AZ3" s="39"/>
-      <c r="BA3" s="39"/>
-      <c r="BB3" s="39"/>
-      <c r="BC3" s="39"/>
-      <c r="BD3" s="41" t="s">
+      <c r="AX3" s="64"/>
+      <c r="AY3" s="64"/>
+      <c r="AZ3" s="64"/>
+      <c r="BA3" s="64"/>
+      <c r="BB3" s="64"/>
+      <c r="BC3" s="64"/>
+      <c r="BD3" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="BE3" s="41"/>
-      <c r="BF3" s="41"/>
-      <c r="BG3" s="41"/>
-      <c r="BH3" s="41"/>
-      <c r="BI3" s="41"/>
-      <c r="BJ3" s="41"/>
-      <c r="BK3" s="39" t="s">
+      <c r="BE3" s="65"/>
+      <c r="BF3" s="65"/>
+      <c r="BG3" s="65"/>
+      <c r="BH3" s="65"/>
+      <c r="BI3" s="65"/>
+      <c r="BJ3" s="65"/>
+      <c r="BK3" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="BL3" s="39"/>
-      <c r="BM3" s="39"/>
-      <c r="BN3" s="39"/>
-      <c r="BO3" s="39"/>
-      <c r="BP3" s="39"/>
-      <c r="BQ3" s="39"/>
-      <c r="BR3" s="41" t="s">
+      <c r="BL3" s="64"/>
+      <c r="BM3" s="64"/>
+      <c r="BN3" s="64"/>
+      <c r="BO3" s="64"/>
+      <c r="BP3" s="64"/>
+      <c r="BQ3" s="64"/>
+      <c r="BR3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="BS3" s="41"/>
-      <c r="BT3" s="41"/>
-      <c r="BU3" s="41"/>
-      <c r="BV3" s="41"/>
-      <c r="BW3" s="41"/>
-      <c r="BX3" s="41"/>
-      <c r="BY3" s="39" t="s">
+      <c r="BS3" s="65"/>
+      <c r="BT3" s="65"/>
+      <c r="BU3" s="65"/>
+      <c r="BV3" s="65"/>
+      <c r="BW3" s="65"/>
+      <c r="BX3" s="65"/>
+      <c r="BY3" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="BZ3" s="39"/>
-      <c r="CA3" s="39"/>
-      <c r="CB3" s="39"/>
-      <c r="CC3" s="39"/>
-      <c r="CD3" s="39"/>
-      <c r="CE3" s="39"/>
-      <c r="CF3" s="41" t="s">
+      <c r="BZ3" s="64"/>
+      <c r="CA3" s="64"/>
+      <c r="CB3" s="64"/>
+      <c r="CC3" s="64"/>
+      <c r="CD3" s="64"/>
+      <c r="CE3" s="64"/>
+      <c r="CF3" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="CG3" s="41"/>
-      <c r="CH3" s="41"/>
-      <c r="CI3" s="41"/>
-      <c r="CJ3" s="41"/>
-      <c r="CK3" s="41"/>
-      <c r="CL3" s="41"/>
-      <c r="CM3" s="39" t="s">
+      <c r="CG3" s="65"/>
+      <c r="CH3" s="65"/>
+      <c r="CI3" s="65"/>
+      <c r="CJ3" s="65"/>
+      <c r="CK3" s="65"/>
+      <c r="CL3" s="65"/>
+      <c r="CM3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="CN3" s="39"/>
-      <c r="CO3" s="39"/>
-      <c r="CP3" s="39"/>
-      <c r="CQ3" s="39"/>
-      <c r="CR3" s="39"/>
-      <c r="CS3" s="39"/>
-      <c r="CT3" s="40"/>
-      <c r="CU3" s="40"/>
-      <c r="CV3" s="40"/>
-      <c r="CW3" s="40"/>
-      <c r="CX3" s="40"/>
-      <c r="CY3" s="40"/>
-      <c r="CZ3" s="40"/>
-      <c r="DA3" s="40" t="s">
+      <c r="CN3" s="64"/>
+      <c r="CO3" s="64"/>
+      <c r="CP3" s="64"/>
+      <c r="CQ3" s="64"/>
+      <c r="CR3" s="64"/>
+      <c r="CS3" s="64"/>
+      <c r="CT3" s="43"/>
+      <c r="CU3" s="43"/>
+      <c r="CV3" s="43"/>
+      <c r="CW3" s="43"/>
+      <c r="CX3" s="43"/>
+      <c r="CY3" s="43"/>
+      <c r="CZ3" s="43"/>
+      <c r="DA3" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="DB3" s="40"/>
-      <c r="DC3" s="40"/>
-      <c r="DD3" s="40"/>
-      <c r="DE3" s="40"/>
-      <c r="DF3" s="40"/>
-      <c r="DG3" s="40"/>
-      <c r="DH3" s="40"/>
-      <c r="DI3" s="40"/>
-      <c r="DJ3" s="40"/>
-      <c r="DK3" s="40"/>
-      <c r="DL3" s="40"/>
-      <c r="DM3" s="40"/>
-      <c r="DN3" s="40"/>
-      <c r="DO3" s="40"/>
-      <c r="DP3" s="40"/>
-      <c r="DQ3" s="40"/>
-      <c r="DR3" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="DS3" s="39"/>
-      <c r="DT3" s="39"/>
-      <c r="DU3" s="39"/>
-      <c r="DV3" s="39"/>
-      <c r="DW3" s="39"/>
-      <c r="DX3" s="39"/>
-      <c r="DY3" s="39"/>
-      <c r="DZ3" s="39"/>
-      <c r="EA3" s="39"/>
-      <c r="EB3" s="39"/>
-      <c r="EC3" s="39"/>
-      <c r="ED3" s="39"/>
-      <c r="EE3" s="39"/>
-      <c r="EF3" s="39"/>
-      <c r="EG3" s="39"/>
-      <c r="EH3" s="39"/>
-      <c r="EI3" s="39"/>
-      <c r="EJ3" s="39"/>
-      <c r="EK3" s="39"/>
-      <c r="EL3" s="39"/>
+      <c r="DB3" s="43"/>
+      <c r="DC3" s="43"/>
+      <c r="DD3" s="43"/>
+      <c r="DE3" s="43"/>
+      <c r="DF3" s="43"/>
+      <c r="DG3" s="43"/>
+      <c r="DH3" s="43"/>
+      <c r="DI3" s="43"/>
+      <c r="DJ3" s="43"/>
+      <c r="DK3" s="43"/>
+      <c r="DL3" s="43"/>
+      <c r="DM3" s="43"/>
+      <c r="DN3" s="43"/>
+      <c r="DO3" s="43"/>
+      <c r="DP3" s="43"/>
+      <c r="DQ3" s="43"/>
+      <c r="DR3" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="DS3" s="64"/>
+      <c r="DT3" s="64"/>
+      <c r="DU3" s="64"/>
+      <c r="DV3" s="64"/>
+      <c r="DW3" s="64"/>
+      <c r="DX3" s="64"/>
+      <c r="DY3" s="64"/>
+      <c r="DZ3" s="64"/>
+      <c r="EA3" s="64"/>
+      <c r="EB3" s="64"/>
+      <c r="EC3" s="64"/>
+      <c r="ED3" s="64"/>
+      <c r="EE3" s="64"/>
+      <c r="EF3" s="64"/>
+      <c r="EG3" s="64"/>
+      <c r="EH3" s="64"/>
+      <c r="EI3" s="64"/>
+      <c r="EJ3" s="64"/>
+      <c r="EK3" s="64"/>
+      <c r="EL3" s="64"/>
     </row>
     <row r="4" spans="1:142" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="43"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="45"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="47"/>
       <c r="I4" s="14">
         <v>1</v>
       </c>
@@ -2038,7 +2015,7 @@
       <c r="A5" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="17">
@@ -2064,7 +2041,7 @@
       <c r="A6" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="38" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="17">
@@ -2091,7 +2068,7 @@
       <c r="A7" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="37" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="17">
@@ -2117,7 +2094,7 @@
       <c r="A8" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="38" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="17">
@@ -2143,7 +2120,7 @@
       <c r="A9" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="37" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="17">
@@ -2169,7 +2146,7 @@
       <c r="A10" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="38" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="17">
@@ -2195,7 +2172,7 @@
       <c r="A11" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="37" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="17">
@@ -2221,7 +2198,7 @@
       <c r="A12" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="39" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="17">
@@ -2247,7 +2224,7 @@
       <c r="A13" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="40" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="17">
@@ -2273,7 +2250,7 @@
       <c r="A14" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="37" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="18">
@@ -2292,7 +2269,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="16"/>
-      <c r="I14" s="62"/>
+      <c r="I14" s="36"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
     </row>
@@ -2300,7 +2277,7 @@
       <c r="A15" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="38" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="17">
@@ -2326,7 +2303,7 @@
       <c r="A16" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="37" t="s">
         <v>38</v>
       </c>
       <c r="C16" s="17">
@@ -2352,13 +2329,13 @@
       <c r="A17" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="38" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="17">
         <v>50</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="35">
         <v>5</v>
       </c>
       <c r="E17" s="18">
@@ -2378,13 +2355,13 @@
       <c r="A18" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="37" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="17">
         <v>69</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="35">
         <v>4</v>
       </c>
       <c r="E18" s="18">
@@ -2404,18 +2381,22 @@
       <c r="A19" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="38" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="17">
         <v>73</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="35">
         <v>40</v>
       </c>
-      <c r="E19" s="18"/>
+      <c r="E19" s="18">
+        <v>85</v>
+      </c>
       <c r="F19" s="18"/>
-      <c r="G19" s="15"/>
+      <c r="G19" s="15">
+        <v>0.5</v>
+      </c>
       <c r="H19" s="16"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
@@ -2424,20 +2405,24 @@
       <c r="A20" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C20" s="17">
         <v>77</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="35">
         <v>25</v>
       </c>
       <c r="E20" s="18">
         <v>85</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="19"/>
+      <c r="F20" s="18">
+        <v>20</v>
+      </c>
+      <c r="G20" s="19">
+        <v>1</v>
+      </c>
       <c r="H20" s="20"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
@@ -2446,20 +2431,22 @@
       <c r="A21" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="38" t="s">
         <v>49</v>
       </c>
       <c r="C21" s="17">
         <v>85</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="35">
         <v>1</v>
       </c>
       <c r="E21" s="18">
         <v>85</v>
       </c>
       <c r="F21" s="18"/>
-      <c r="G21" s="15"/>
+      <c r="G21" s="15">
+        <v>1</v>
+      </c>
       <c r="H21" s="16"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
@@ -2468,39 +2455,51 @@
       <c r="A22" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="63" t="s">
-        <v>54</v>
+      <c r="B22" s="37" t="s">
+        <v>52</v>
       </c>
       <c r="C22" s="17">
         <f>20+77</f>
         <v>97</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="35">
+        <v>7</v>
+      </c>
+      <c r="E22" s="18">
+        <v>110</v>
+      </c>
+      <c r="F22" s="18">
+        <v>7</v>
+      </c>
+      <c r="G22" s="19">
         <v>1</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="19"/>
       <c r="H22" s="20"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
     </row>
     <row r="23" spans="1:142" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="64" t="s">
-        <v>55</v>
+        <v>41</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>58</v>
       </c>
       <c r="C23" s="18">
         <v>97</v>
       </c>
       <c r="D23" s="18">
+        <v>20</v>
+      </c>
+      <c r="E23" s="18">
+        <v>110</v>
+      </c>
+      <c r="F23" s="18">
+        <v>20</v>
+      </c>
+      <c r="G23" s="15">
         <v>1</v>
       </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="15"/>
       <c r="H23" s="16"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
@@ -2509,18 +2508,24 @@
       <c r="A24" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="63" t="s">
-        <v>52</v>
+      <c r="B24" s="37" t="s">
+        <v>51</v>
       </c>
       <c r="C24" s="17">
         <v>85</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="35">
         <v>25</v>
       </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19"/>
+      <c r="E24" s="18">
+        <v>85</v>
+      </c>
+      <c r="F24" s="18">
+        <v>25</v>
+      </c>
+      <c r="G24" s="19">
+        <v>1</v>
+      </c>
       <c r="H24" s="20"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
@@ -2529,61 +2534,78 @@
       <c r="A25" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="38" t="s">
         <v>48</v>
       </c>
       <c r="C25" s="17">
         <f>73+40</f>
         <v>113</v>
       </c>
-      <c r="D25" s="38">
-        <v>1</v>
-      </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="15"/>
+      <c r="D25" s="35">
+        <v>10</v>
+      </c>
+      <c r="E25" s="18">
+        <v>113</v>
+      </c>
+      <c r="F25" s="18">
+        <v>12</v>
+      </c>
+      <c r="G25" s="15">
+        <v>0.5</v>
+      </c>
       <c r="H25" s="16"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
     </row>
     <row r="26" spans="1:142" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="17">
+      <c r="A26" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="18">
+        <v>125</v>
+      </c>
+      <c r="D26" s="18">
+        <v>10</v>
+      </c>
+      <c r="E26" s="18">
         <v>113</v>
       </c>
-      <c r="D26" s="17">
-        <v>3</v>
-      </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
+      <c r="F26" s="18">
+        <v>10</v>
+      </c>
       <c r="G26" s="19">
         <v>0</v>
       </c>
-      <c r="H26" s="20"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
     </row>
     <row r="27" spans="1:142" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="38" t="s">
         <v>56</v>
       </c>
       <c r="C27" s="17">
-        <v>113</v>
-      </c>
-      <c r="D27" s="17">
-        <v>3</v>
-      </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="15"/>
+        <v>125</v>
+      </c>
+      <c r="D27" s="35">
+        <v>12</v>
+      </c>
+      <c r="E27" s="18">
+        <v>125</v>
+      </c>
+      <c r="F27" s="18">
+        <v>10</v>
+      </c>
+      <c r="G27" s="15">
+        <v>0.5</v>
+      </c>
       <c r="H27" s="16"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
@@ -2592,19 +2614,23 @@
       <c r="A28" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="63" t="s">
-        <v>53</v>
+      <c r="B28" s="37" t="s">
+        <v>33</v>
       </c>
       <c r="C28" s="17">
         <v>113</v>
       </c>
       <c r="D28" s="17">
-        <v>5</v>
-      </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
+        <v>3</v>
+      </c>
+      <c r="E28" s="18">
+        <v>113</v>
+      </c>
+      <c r="F28" s="18">
+        <v>3</v>
+      </c>
       <c r="G28" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="20"/>
       <c r="AB28" s="1"/>
@@ -2612,21 +2638,25 @@
     </row>
     <row r="29" spans="1:142" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="64" t="s">
-        <v>32</v>
+        <v>41</v>
+      </c>
+      <c r="B29" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="C29" s="17">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D29" s="17">
         <v>5</v>
       </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
+      <c r="E29" s="18">
+        <v>114</v>
+      </c>
+      <c r="F29" s="18">
+        <v>4</v>
+      </c>
       <c r="G29" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="16"/>
       <c r="AB29" s="1"/>
@@ -2636,210 +2666,214 @@
       <c r="A30" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="63" t="s">
-        <v>57</v>
+      <c r="B30" s="37" t="s">
+        <v>32</v>
       </c>
       <c r="C30" s="17">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="D30" s="17">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="E30" s="18">
-        <v>38</v>
-      </c>
-      <c r="F30" s="18"/>
+        <v>113</v>
+      </c>
+      <c r="F30" s="18">
+        <v>14</v>
+      </c>
       <c r="G30" s="19">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H30" s="20"/>
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
     </row>
     <row r="31" spans="1:142" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="70" t="s">
+      <c r="A31" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="31">
+      <c r="B31" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="17">
+        <v>38</v>
+      </c>
+      <c r="D31" s="17">
+        <v>100</v>
+      </c>
+      <c r="E31" s="18">
+        <v>38</v>
+      </c>
+      <c r="F31" s="18">
+        <v>110</v>
+      </c>
+      <c r="G31" s="15">
+        <v>1</v>
+      </c>
+      <c r="H31" s="16"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+    </row>
+    <row r="32" spans="1:142" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="17">
         <v>120</v>
       </c>
-      <c r="D31" s="31">
+      <c r="D32" s="17">
         <v>10</v>
       </c>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="69">
-        <v>0</v>
-      </c>
-      <c r="H31" s="33"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="34"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="34"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="34"/>
-      <c r="X31" s="34"/>
-      <c r="Y31" s="34"/>
-      <c r="Z31" s="34"/>
-      <c r="AA31" s="34"/>
-      <c r="AB31" s="34"/>
-      <c r="AC31" s="34"/>
-      <c r="AD31" s="35"/>
-      <c r="AE31" s="35"/>
-      <c r="AF31" s="35"/>
-      <c r="AG31" s="35"/>
-      <c r="AH31" s="35"/>
-      <c r="AI31" s="35"/>
-      <c r="AJ31" s="35"/>
-      <c r="AK31" s="35"/>
-      <c r="AL31" s="35"/>
-      <c r="AM31" s="35"/>
-      <c r="AN31" s="35"/>
-      <c r="AO31" s="35"/>
-      <c r="AP31" s="35"/>
-      <c r="AQ31" s="35"/>
-      <c r="AR31" s="35"/>
-      <c r="AS31" s="35"/>
-      <c r="AT31" s="35"/>
-      <c r="AU31" s="35"/>
-      <c r="AV31" s="35"/>
-      <c r="AW31" s="35"/>
-      <c r="AX31" s="35"/>
-      <c r="AY31" s="35"/>
-      <c r="AZ31" s="35"/>
-      <c r="BA31" s="35"/>
-      <c r="BB31" s="35"/>
-      <c r="BC31" s="35"/>
-      <c r="BD31" s="35"/>
-      <c r="BE31" s="35"/>
-      <c r="BF31" s="35"/>
-      <c r="BG31" s="35"/>
-      <c r="BH31" s="35"/>
-      <c r="BI31" s="35"/>
-      <c r="BJ31" s="35"/>
-      <c r="BK31" s="35"/>
-      <c r="BL31" s="35"/>
-      <c r="BM31" s="35"/>
-      <c r="BN31" s="35"/>
-      <c r="BO31" s="35"/>
-      <c r="BP31" s="35"/>
-      <c r="BQ31" s="35"/>
-      <c r="BR31" s="35"/>
-      <c r="BS31" s="35"/>
-      <c r="BT31" s="35"/>
-      <c r="BU31" s="35"/>
-      <c r="BV31" s="35"/>
-      <c r="BW31" s="35"/>
-      <c r="BX31" s="35"/>
-      <c r="BY31" s="35"/>
-      <c r="BZ31" s="35"/>
-      <c r="CA31" s="35"/>
-      <c r="CB31" s="35"/>
-      <c r="CC31" s="35"/>
-      <c r="CD31" s="35"/>
-      <c r="CE31" s="35"/>
-      <c r="CF31" s="35"/>
-      <c r="CG31" s="35"/>
-      <c r="CH31" s="35"/>
-      <c r="CI31" s="35"/>
-      <c r="CJ31" s="35"/>
-      <c r="CK31" s="35"/>
-      <c r="CL31" s="35"/>
-      <c r="CM31" s="35"/>
-      <c r="CN31" s="35"/>
-      <c r="CO31" s="35"/>
-      <c r="CP31" s="35"/>
-      <c r="CQ31" s="35"/>
-      <c r="CR31" s="35"/>
-      <c r="CS31" s="35"/>
-      <c r="CT31" s="35"/>
-      <c r="CU31" s="35"/>
-      <c r="CV31" s="35"/>
-      <c r="CW31" s="35"/>
-      <c r="CX31" s="35"/>
-      <c r="CY31" s="35"/>
-      <c r="CZ31" s="35"/>
-      <c r="DA31" s="35"/>
-      <c r="DB31" s="35"/>
-      <c r="DC31" s="35"/>
-      <c r="DD31" s="35"/>
-      <c r="DE31" s="35"/>
-      <c r="DF31" s="35"/>
-      <c r="DG31" s="35"/>
-      <c r="DH31" s="35"/>
-      <c r="DI31" s="35"/>
-      <c r="DJ31" s="35"/>
-      <c r="DK31" s="35"/>
-      <c r="DL31" s="35"/>
-      <c r="DM31" s="35"/>
-      <c r="DN31" s="35"/>
-      <c r="DO31" s="35"/>
-      <c r="DP31" s="35"/>
-      <c r="DQ31" s="35"/>
-      <c r="DR31" s="35"/>
-      <c r="DS31" s="35"/>
-      <c r="DT31" s="35"/>
-      <c r="DU31" s="35"/>
-      <c r="DV31" s="35"/>
-      <c r="DW31" s="35"/>
-      <c r="DX31" s="35"/>
-      <c r="DY31" s="35"/>
-      <c r="DZ31" s="35"/>
-      <c r="EA31" s="35"/>
-      <c r="EB31" s="35"/>
-      <c r="EC31" s="35"/>
-      <c r="ED31" s="35"/>
-      <c r="EE31" s="35"/>
-      <c r="EF31" s="35"/>
-      <c r="EG31" s="35"/>
-      <c r="EH31" s="35"/>
-      <c r="EI31" s="35"/>
-      <c r="EJ31" s="35"/>
-      <c r="EK31" s="35"/>
-      <c r="EL31" s="35"/>
-    </row>
-    <row r="32" spans="1:142" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="67"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
-      <c r="O32"/>
-      <c r="P32"/>
-      <c r="Q32"/>
-      <c r="R32"/>
-      <c r="S32"/>
-      <c r="T32"/>
-      <c r="U32"/>
-      <c r="V32"/>
-      <c r="W32"/>
-      <c r="X32"/>
-      <c r="Y32"/>
-      <c r="Z32"/>
-      <c r="AA32"/>
+      <c r="E32" s="18">
+        <v>126</v>
+      </c>
+      <c r="F32" s="18">
+        <v>1</v>
+      </c>
+      <c r="G32" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="31"/>
+      <c r="V32" s="31"/>
+      <c r="W32" s="31"/>
+      <c r="X32" s="31"/>
+      <c r="Y32" s="31"/>
+      <c r="Z32" s="31"/>
+      <c r="AA32" s="31"/>
+      <c r="AB32" s="31"/>
+      <c r="AC32" s="31"/>
+      <c r="AD32" s="32"/>
+      <c r="AE32" s="32"/>
+      <c r="AF32" s="32"/>
+      <c r="AG32" s="32"/>
+      <c r="AH32" s="32"/>
+      <c r="AI32" s="32"/>
+      <c r="AJ32" s="32"/>
+      <c r="AK32" s="32"/>
+      <c r="AL32" s="32"/>
+      <c r="AM32" s="32"/>
+      <c r="AN32" s="32"/>
+      <c r="AO32" s="32"/>
+      <c r="AP32" s="32"/>
+      <c r="AQ32" s="32"/>
+      <c r="AR32" s="32"/>
+      <c r="AS32" s="32"/>
+      <c r="AT32" s="32"/>
+      <c r="AU32" s="32"/>
+      <c r="AV32" s="32"/>
+      <c r="AW32" s="32"/>
+      <c r="AX32" s="32"/>
+      <c r="AY32" s="32"/>
+      <c r="AZ32" s="32"/>
+      <c r="BA32" s="32"/>
+      <c r="BB32" s="32"/>
+      <c r="BC32" s="32"/>
+      <c r="BD32" s="32"/>
+      <c r="BE32" s="32"/>
+      <c r="BF32" s="32"/>
+      <c r="BG32" s="32"/>
+      <c r="BH32" s="32"/>
+      <c r="BI32" s="32"/>
+      <c r="BJ32" s="32"/>
+      <c r="BK32" s="32"/>
+      <c r="BL32" s="32"/>
+      <c r="BM32" s="32"/>
+      <c r="BN32" s="32"/>
+      <c r="BO32" s="32"/>
+      <c r="BP32" s="32"/>
+      <c r="BQ32" s="32"/>
+      <c r="BR32" s="32"/>
+      <c r="BS32" s="32"/>
+      <c r="BT32" s="32"/>
+      <c r="BU32" s="32"/>
+      <c r="BV32" s="32"/>
+      <c r="BW32" s="32"/>
+      <c r="BX32" s="32"/>
+      <c r="BY32" s="32"/>
+      <c r="BZ32" s="32"/>
+      <c r="CA32" s="32"/>
+      <c r="CB32" s="32"/>
+      <c r="CC32" s="32"/>
+      <c r="CD32" s="32"/>
+      <c r="CE32" s="32"/>
+      <c r="CF32" s="32"/>
+      <c r="CG32" s="32"/>
+      <c r="CH32" s="32"/>
+      <c r="CI32" s="32"/>
+      <c r="CJ32" s="32"/>
+      <c r="CK32" s="32"/>
+      <c r="CL32" s="32"/>
+      <c r="CM32" s="32"/>
+      <c r="CN32" s="32"/>
+      <c r="CO32" s="32"/>
+      <c r="CP32" s="32"/>
+      <c r="CQ32" s="32"/>
+      <c r="CR32" s="32"/>
+      <c r="CS32" s="32"/>
+      <c r="CT32" s="32"/>
+      <c r="CU32" s="32"/>
+      <c r="CV32" s="32"/>
+      <c r="CW32" s="32"/>
+      <c r="CX32" s="32"/>
+      <c r="CY32" s="32"/>
+      <c r="CZ32" s="32"/>
+      <c r="DA32" s="32"/>
+      <c r="DB32" s="32"/>
+      <c r="DC32" s="32"/>
+      <c r="DD32" s="32"/>
+      <c r="DE32" s="32"/>
+      <c r="DF32" s="32"/>
+      <c r="DG32" s="32"/>
+      <c r="DH32" s="32"/>
+      <c r="DI32" s="32"/>
+      <c r="DJ32" s="32"/>
+      <c r="DK32" s="32"/>
+      <c r="DL32" s="32"/>
+      <c r="DM32" s="32"/>
+      <c r="DN32" s="32"/>
+      <c r="DO32" s="32"/>
+      <c r="DP32" s="32"/>
+      <c r="DQ32" s="32"/>
+      <c r="DR32" s="32"/>
+      <c r="DS32" s="32"/>
+      <c r="DT32" s="32"/>
+      <c r="DU32" s="32"/>
+      <c r="DV32" s="32"/>
+      <c r="DW32" s="32"/>
+      <c r="DX32" s="32"/>
+      <c r="DY32" s="32"/>
+      <c r="DZ32" s="32"/>
+      <c r="EA32" s="32"/>
+      <c r="EB32" s="32"/>
+      <c r="EC32" s="32"/>
+      <c r="ED32" s="32"/>
+      <c r="EE32" s="32"/>
+      <c r="EF32" s="32"/>
+      <c r="EG32" s="32"/>
+      <c r="EH32" s="32"/>
+      <c r="EI32" s="32"/>
+      <c r="EJ32" s="32"/>
+      <c r="EK32" s="32"/>
+      <c r="EL32" s="32"/>
     </row>
     <row r="33" spans="2:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="67"/>
+      <c r="B33" s="41"/>
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
@@ -2867,7 +2901,7 @@
       <c r="AA33"/>
     </row>
     <row r="34" spans="2:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="67"/>
+      <c r="B34" s="41"/>
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
@@ -2894,8 +2928,8 @@
       <c r="Z34"/>
       <c r="AA34"/>
     </row>
-    <row r="35" spans="2:27" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="67"/>
+    <row r="35" spans="2:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="41"/>
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35"/>
@@ -2922,8 +2956,8 @@
       <c r="Z35"/>
       <c r="AA35"/>
     </row>
-    <row r="36" spans="2:27" ht="36.65" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="67"/>
+    <row r="36" spans="2:27" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="41"/>
       <c r="C36"/>
       <c r="D36"/>
       <c r="E36"/>
@@ -2951,7 +2985,7 @@
       <c r="AA36"/>
     </row>
     <row r="37" spans="2:27" ht="36.65" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="67"/>
+      <c r="B37" s="41"/>
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
@@ -2979,7 +3013,7 @@
       <c r="AA37"/>
     </row>
     <row r="38" spans="2:27" ht="36.65" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="67"/>
+      <c r="B38" s="41"/>
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38"/>
@@ -3006,8 +3040,8 @@
       <c r="Z38"/>
       <c r="AA38"/>
     </row>
-    <row r="39" spans="2:27" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="67"/>
+    <row r="39" spans="2:27" ht="36.65" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="41"/>
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39"/>
@@ -3034,8 +3068,8 @@
       <c r="Z39"/>
       <c r="AA39"/>
     </row>
-    <row r="40" spans="2:27" ht="36.65" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="67"/>
+    <row r="40" spans="2:27" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="41"/>
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
@@ -3063,7 +3097,7 @@
       <c r="AA40"/>
     </row>
     <row r="41" spans="2:27" ht="36.65" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="67"/>
+      <c r="B41" s="41"/>
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
@@ -3090,8 +3124,8 @@
       <c r="Z41"/>
       <c r="AA41"/>
     </row>
-    <row r="42" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="67"/>
+    <row r="42" spans="2:27" ht="36.65" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="41"/>
       <c r="C42"/>
       <c r="D42"/>
       <c r="E42"/>
@@ -3119,44 +3153,44 @@
       <c r="AA42"/>
     </row>
     <row r="43" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="68"/>
+      <c r="B43" s="41"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43"/>
+      <c r="AA43"/>
     </row>
     <row r="44" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="68"/>
+      <c r="B44" s="42"/>
     </row>
     <row r="45" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="68"/>
+      <c r="B45" s="42"/>
     </row>
     <row r="46" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="67"/>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
-      <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46"/>
-      <c r="M46"/>
-      <c r="N46"/>
-      <c r="O46"/>
-      <c r="P46"/>
-      <c r="Q46"/>
-      <c r="R46"/>
-      <c r="S46"/>
-      <c r="T46"/>
-      <c r="U46"/>
-      <c r="V46"/>
-      <c r="W46"/>
-      <c r="X46"/>
-      <c r="Y46"/>
-      <c r="Z46"/>
-      <c r="AA46"/>
+      <c r="B46" s="42"/>
     </row>
     <row r="47" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="67"/>
+      <c r="B47" s="41"/>
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
@@ -3184,7 +3218,7 @@
       <c r="AA47"/>
     </row>
     <row r="48" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="67"/>
+      <c r="B48" s="41"/>
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48"/>
@@ -3212,7 +3246,7 @@
       <c r="AA48"/>
     </row>
     <row r="49" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="67"/>
+      <c r="B49" s="41"/>
       <c r="C49"/>
       <c r="D49"/>
       <c r="E49"/>
@@ -3240,7 +3274,7 @@
       <c r="AA49"/>
     </row>
     <row r="50" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="67"/>
+      <c r="B50" s="41"/>
       <c r="C50"/>
       <c r="D50"/>
       <c r="E50"/>
@@ -3268,7 +3302,7 @@
       <c r="AA50"/>
     </row>
     <row r="51" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="67"/>
+      <c r="B51" s="41"/>
       <c r="C51"/>
       <c r="D51"/>
       <c r="E51"/>
@@ -3296,7 +3330,7 @@
       <c r="AA51"/>
     </row>
     <row r="52" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="67"/>
+      <c r="B52" s="41"/>
       <c r="C52"/>
       <c r="D52"/>
       <c r="E52"/>
@@ -3324,7 +3358,7 @@
       <c r="AA52"/>
     </row>
     <row r="53" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="67"/>
+      <c r="B53" s="41"/>
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53"/>
@@ -3352,7 +3386,7 @@
       <c r="AA53"/>
     </row>
     <row r="54" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="67"/>
+      <c r="B54" s="41"/>
       <c r="C54"/>
       <c r="D54"/>
       <c r="E54"/>
@@ -3380,7 +3414,7 @@
       <c r="AA54"/>
     </row>
     <row r="55" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="67"/>
+      <c r="B55" s="41"/>
       <c r="C55"/>
       <c r="D55"/>
       <c r="E55"/>
@@ -3408,7 +3442,7 @@
       <c r="AA55"/>
     </row>
     <row r="56" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56"/>
+      <c r="B56" s="41"/>
       <c r="C56"/>
       <c r="D56"/>
       <c r="E56"/>
@@ -3827,7 +3861,15 @@
       <c r="Z70"/>
       <c r="AA70"/>
     </row>
-    <row r="71" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
       <c r="J71"/>
       <c r="K71"/>
       <c r="L71"/>
@@ -3927,23 +3969,28 @@
       <c r="Z75"/>
       <c r="AA75"/>
     </row>
+    <row r="76" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+      <c r="Q76"/>
+      <c r="R76"/>
+      <c r="S76"/>
+      <c r="T76"/>
+      <c r="U76"/>
+      <c r="V76"/>
+      <c r="W76"/>
+      <c r="X76"/>
+      <c r="Y76"/>
+      <c r="Z76"/>
+      <c r="AA76"/>
+    </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="CT3:CZ3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="AA2:AG2"/>
-    <mergeCell ref="AI2:AP2"/>
     <mergeCell ref="DR3:EL3"/>
     <mergeCell ref="DA3:DG3"/>
     <mergeCell ref="DH3:DQ3"/>
@@ -3960,8 +4007,23 @@
     <mergeCell ref="BY3:CE3"/>
     <mergeCell ref="CF3:CL3"/>
     <mergeCell ref="CM3:CS3"/>
+    <mergeCell ref="CT3:CZ3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="AA2:AG2"/>
+    <mergeCell ref="AI2:AP2"/>
   </mergeCells>
-  <conditionalFormatting sqref="I5:EL31">
+  <conditionalFormatting sqref="I5:EL25 J26:EL26 I27:EL32">
     <cfRule type="expression" dxfId="9" priority="10">
       <formula>ProcentdelFuldført</formula>
     </cfRule>
